--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -70,6 +70,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -18145,7 +18213,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yaron</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18213,7 +18213,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>yaron</t>
+          <t>no</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -70,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -17973,7 +17905,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17940,7 +17940,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18060,7 +18060,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:H442"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G439" activeCellId="0" sqref="G439"/>
+      <selection pane="topLeft" activeCell="G440" activeCellId="0" sqref="G440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13399,7 +13399,7 @@
         <v>14</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18180,7 +18180,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="606">
   <si>
     <t xml:space="preserve">appid</t>
   </si>
@@ -1382,7 +1382,26 @@
     <t xml:space="preserve">moshemask10@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income, that makes you more at risk. Look for items that generate passive income so that you can pay off debt without sacrifice. The more you save, the less you will need to borrow.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">passive income</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, that makes you more at risk. Look for items that generate passive income so that you can pay off debt without sacrifice. The more you save, the less you will need to borrow.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">thomascnoel893@gmail.com</t>
@@ -1391,22 +1410,98 @@
     <t xml:space="preserve">kimcpeckham@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income application form. We are a society where service is valued more than profits.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">passive income application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> form. We are a society where service is valued more than profits.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">arthurkbaker58@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income application is the best way to get what you want. Don't hold out for that opportunity, because you'll get it too late. As you build your skills, you'll find that you are exposed to different management philosophies. Look for ways to work with each one. This is what's called an ongoing education. You're building skills that will serve you well as you navigate the world of money management. That's how you find your niche. That's what makes this profession so fun.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">passive income application is the best</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> way to get what you want. Don't hold out for that opportunity, because you'll get it too late. As you build your skills, you'll find that you are exposed to different management philosophies. Look for ways to work with each one. This is what's called an ongoing education. You're building skills that will serve you well as you navigate the world of money management. That's how you find your niche. That's what makes this profession so fun.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> dorothynhouck@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">passive income application is the best application to be made on the basis of the Census Long Form – Explanatory Guide. The difference is that it is flexible. You can choose to have a LFA for your home, or for the rest of your life. Your home could also be a part of a mixed ownership. If you don't have a LFA or if you are renting, we may not be able to help with your mortgage interest, and so we will not be able to provide any mortgage insurance cover. Please refer to the evidence we have received from lenders, if you have any questions regarding this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passive income application is amazing for two reasons. First, it keeps you from being on a waiting list. It also gives you a chance to use the direct deposit program to apply for most if not all of the state benefits you could qualify for through multiple state income streams. You may be able to qualify for the maximum benefits with only the state income stream available to you through SNAP. But if you have five different income streams to choose from, you're probably not going to qualify. The direct deposit application is designed to streamline your existing payment into a single payment in which all of the income is deducted.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">passive income application is the best application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to be made on the basis of the Census Long Form – Explanatory Guide. The difference is that it is flexible. You can choose to have a LFA for your home, or for the rest of your life. Your home could also be a part of a mixed ownership. If you don't have a LFA or if you are renting, we may not be able to help with your mortgage interest, and so we will not be able to provide any mortgage insurance cover. Please refer to the evidence we have received from lenders, if you have any questions regarding this.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">passive income application is amazing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for two reasons. First, it keeps you from being on a waiting list. It also gives you a chance to use the direct deposit program to apply for most if not all of the state benefits you could qualify for through multiple state income streams. You may be able to qualify for the maximum benefits with only the state income stream available to you through SNAP. But if you have five different income streams to choose from, you're probably not going to qualify. The direct deposit application is designed to streamline your existing payment into a single payment in which all of the income is deducted.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">blockhain guide to our newly open-sourced digester idea. Since coming to the Houston ICS CNC, it has become obvious that parts of our idea have proven to be quite feasible. This blog post will be an introduction to a few more things we can improve on and hopefully encourage some people to start working on (a really important part of our project is participation by interested people).</t>
@@ -1826,7 +1921,7 @@
     <t xml:space="preserve">online comapring of duty free products and shops. Amazing duty free prices and comparison</t>
   </si>
   <si>
-    <t xml:space="preserve">off topic- duty free- just love this amazing duty free app.</t>
+    <t xml:space="preserve">off topic duty free just love this amazing duty free app.</t>
   </si>
   <si>
     <t xml:space="preserve">fall in love in duty free and then this app of duty free… all I ever needed.</t>
@@ -1836,6 +1931,45 @@
   </si>
   <si>
     <t xml:space="preserve">I start to emerge in every duty free in this app.. Hahaha great duty free app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what an amazing enery and qute app. Best quotes app I've had by far</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quotes app with so much inspiration and power. Love these quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erezbirenboim32@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evenrotem@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omg quotes never stop. I love this quotes app so much. Recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the best app that can be described and develop is here. Try it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what an awesome and so simple quote app. Amazing... I like it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just read an article from this app and got amazed from the details and great info about duty free shopping and stores in airports. This duty free app is the best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recommend about this duty free app. Compare your products and pricing from duty free stores around the globe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you be more grateful than this? Amazing duty free app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what an illusion of duty free prices. I think everyone should check duty free prices and products before departure. Amazing idea and good app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some of us think that this app can save them a lot of cash in duty free before the flight. I think this is great state of mind about duty free shopping and pruchases around the world.</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1980,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1870,22 +2004,70 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1900,8 +2082,36 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1925,13 +2135,46 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,19 +2182,180 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Hyperlink 2" xfId="21"/>
+    <cellStyle name="Hyperlink 3" xfId="22"/>
+    <cellStyle name="Normal 2" xfId="23"/>
+    <cellStyle name="Normal 3" xfId="24"/>
+    <cellStyle name="Normal 4" xfId="25"/>
+    <cellStyle name="Normal 5" xfId="26"/>
+    <cellStyle name="Normal 7" xfId="27"/>
+    <cellStyle name="Normal 8" xfId="28"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF3C4043"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1960,13 +2364,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H442"/>
+  <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G440" activeCellId="0" sqref="G440"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F451" activeCellId="0" sqref="F451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5963,7 +6372,7 @@
         <v>250</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>15</v>
@@ -5989,7 +6398,7 @@
         <v>251</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>15</v>
@@ -6015,7 +6424,7 @@
         <v>253</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>15</v>
@@ -6041,7 +6450,7 @@
         <v>254</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>15</v>
@@ -6054,10 +6463,10 @@
       <c r="B158" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E158" s="2" t="n">
@@ -6067,7 +6476,7 @@
         <v>255</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>15</v>
@@ -6080,10 +6489,10 @@
       <c r="B159" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E159" s="2" t="n">
@@ -6106,10 +6515,10 @@
       <c r="B160" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E160" s="2" t="n">
@@ -6132,10 +6541,10 @@
       <c r="B161" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E161" s="2" t="n">
@@ -8195,7 +8604,7 @@
       <c r="E240" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F240" s="0" t="s">
+      <c r="F240" s="3" t="s">
         <v>350</v>
       </c>
       <c r="G240" s="0" t="s">
@@ -8221,7 +8630,7 @@
       <c r="E241" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F241" s="0" t="s">
+      <c r="F241" s="3" t="s">
         <v>351</v>
       </c>
       <c r="G241" s="0" t="s">
@@ -8247,7 +8656,7 @@
       <c r="E242" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F242" s="0" t="s">
+      <c r="F242" s="3" t="s">
         <v>352</v>
       </c>
       <c r="G242" s="0" t="s">
@@ -8273,7 +8682,7 @@
       <c r="E243" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F243" s="0" t="s">
+      <c r="F243" s="3" t="s">
         <v>353</v>
       </c>
       <c r="G243" s="0" t="s">
@@ -8299,7 +8708,7 @@
       <c r="E244" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F244" s="0" t="s">
+      <c r="F244" s="3" t="s">
         <v>354</v>
       </c>
       <c r="G244" s="0" t="s">
@@ -8325,7 +8734,7 @@
       <c r="E245" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F245" s="0" t="s">
+      <c r="F245" s="3" t="s">
         <v>355</v>
       </c>
       <c r="G245" s="0" t="s">
@@ -8351,7 +8760,7 @@
       <c r="E246" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F246" s="0" t="s">
+      <c r="F246" s="3" t="s">
         <v>356</v>
       </c>
       <c r="G246" s="0" t="s">
@@ -8377,7 +8786,7 @@
       <c r="E247" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F247" s="0" t="s">
+      <c r="F247" s="3" t="s">
         <v>357</v>
       </c>
       <c r="G247" s="0" t="s">
@@ -8403,7 +8812,7 @@
       <c r="E248" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F248" s="0" t="s">
+      <c r="F248" s="3" t="s">
         <v>358</v>
       </c>
       <c r="G248" s="0" t="s">
@@ -8429,7 +8838,7 @@
       <c r="E249" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F249" s="0" t="s">
+      <c r="F249" s="3" t="s">
         <v>359</v>
       </c>
       <c r="G249" s="0" t="s">
@@ -8455,7 +8864,7 @@
       <c r="E250" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F250" s="0" t="s">
+      <c r="F250" s="3" t="s">
         <v>361</v>
       </c>
       <c r="G250" s="0" t="s">
@@ -8478,7 +8887,7 @@
       <c r="E251" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F251" s="0" t="s">
+      <c r="F251" s="3" t="s">
         <v>363</v>
       </c>
       <c r="G251" s="0" t="s">
@@ -8556,7 +8965,7 @@
       <c r="E254" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F254" s="4" t="s">
         <v>366</v>
       </c>
       <c r="G254" s="0" t="s">
@@ -8582,7 +8991,7 @@
       <c r="E255" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F255" s="0" t="s">
+      <c r="F255" s="3" t="s">
         <v>368</v>
       </c>
       <c r="G255" s="0" t="s">
@@ -8608,7 +9017,7 @@
       <c r="E256" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F256" s="0" t="s">
+      <c r="F256" s="3" t="s">
         <v>370</v>
       </c>
       <c r="G256" s="0" t="s">
@@ -8634,7 +9043,7 @@
       <c r="E257" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F257" s="4" t="s">
         <v>372</v>
       </c>
       <c r="G257" s="0" t="s">
@@ -8660,7 +9069,7 @@
       <c r="E258" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F258" s="0" t="s">
+      <c r="F258" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G258" s="0" t="s">
@@ -8686,7 +9095,7 @@
       <c r="E259" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F259" s="0" t="s">
+      <c r="F259" s="3" t="s">
         <v>375</v>
       </c>
       <c r="G259" s="0" t="s">
@@ -8712,7 +9121,7 @@
       <c r="E260" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F260" s="0" t="s">
+      <c r="F260" s="3" t="s">
         <v>377</v>
       </c>
       <c r="G260" s="0" t="s">
@@ -8738,7 +9147,7 @@
       <c r="E261" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F261" s="0" t="s">
+      <c r="F261" s="3" t="s">
         <v>378</v>
       </c>
       <c r="G261" s="0" t="s">
@@ -8764,7 +9173,7 @@
       <c r="E262" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F262" s="0" t="s">
+      <c r="F262" s="3" t="s">
         <v>379</v>
       </c>
       <c r="G262" s="0" t="s">
@@ -8790,7 +9199,7 @@
       <c r="E263" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F263" s="0" t="s">
+      <c r="F263" s="3" t="s">
         <v>380</v>
       </c>
       <c r="G263" s="0" t="s">
@@ -8816,7 +9225,7 @@
       <c r="E264" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F264" s="0" t="s">
+      <c r="F264" s="3" t="s">
         <v>381</v>
       </c>
       <c r="G264" s="0" t="s">
@@ -8842,7 +9251,7 @@
       <c r="E265" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F265" s="0" t="s">
+      <c r="F265" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G265" s="0" t="s">
@@ -8868,7 +9277,7 @@
       <c r="E266" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F266" s="0" t="s">
+      <c r="F266" s="3" t="s">
         <v>383</v>
       </c>
       <c r="G266" s="0" t="s">
@@ -8894,7 +9303,7 @@
       <c r="E267" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F267" s="0" t="s">
+      <c r="F267" s="3" t="s">
         <v>384</v>
       </c>
       <c r="G267" s="0" t="s">
@@ -9457,10 +9866,10 @@
       <c r="B289" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D289" s="0" t="s">
+      <c r="D289" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E289" s="2" t="n">
@@ -9483,10 +9892,10 @@
       <c r="B290" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D290" s="0" t="s">
+      <c r="D290" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E290" s="2" t="n">
@@ -9509,10 +9918,10 @@
       <c r="B291" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D291" s="0" t="s">
+      <c r="D291" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E291" s="2" t="n">
@@ -9535,10 +9944,10 @@
       <c r="B292" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D292" s="0" t="s">
+      <c r="D292" s="3" t="s">
         <v>288</v>
       </c>
       <c r="E292" s="2" t="n">
@@ -9561,10 +9970,10 @@
       <c r="B293" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D293" s="0" t="s">
+      <c r="D293" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E293" s="2" t="n">
@@ -9587,10 +9996,10 @@
       <c r="B294" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D294" s="0" t="s">
+      <c r="D294" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E294" s="2" t="n">
@@ -9613,10 +10022,10 @@
       <c r="B295" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D295" s="0" t="s">
+      <c r="D295" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E295" s="2" t="n">
@@ -9639,10 +10048,10 @@
       <c r="B296" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C296" s="0" t="s">
+      <c r="C296" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D296" s="0" t="s">
+      <c r="D296" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E296" s="2" t="n">
@@ -9665,10 +10074,10 @@
       <c r="B297" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C297" s="0" t="s">
+      <c r="C297" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D297" s="0" t="s">
+      <c r="D297" s="3" t="s">
         <v>416</v>
       </c>
       <c r="E297" s="2" t="n">
@@ -9691,7 +10100,7 @@
       <c r="B298" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C298" s="0" t="s">
+      <c r="C298" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D298" s="0" t="s">
@@ -9700,7 +10109,7 @@
       <c r="E298" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F298" s="0" t="s">
+      <c r="F298" s="3" t="s">
         <v>418</v>
       </c>
       <c r="G298" s="0" t="s">
@@ -9711,1316 +10120,1316 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="0" t="s">
+      <c r="C299" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D299" s="0" t="s">
+      <c r="D299" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E299" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F299" s="0" t="s">
+      <c r="F299" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G299" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H299" s="0" t="s">
+      <c r="G299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C300" s="0" t="s">
+      <c r="C300" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D300" s="0" t="s">
+      <c r="D300" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E300" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F300" s="0" t="s">
+      <c r="F300" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G300" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H300" s="0" t="s">
+      <c r="G300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C301" s="0" t="s">
+      <c r="C301" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D301" s="0" t="s">
+      <c r="D301" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E301" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F301" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G301" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H301" s="0" t="s">
+      <c r="G301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C302" s="0" t="s">
+      <c r="C302" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D302" s="0" t="s">
+      <c r="D302" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E302" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F302" s="0" t="s">
+      <c r="F302" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G302" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H302" s="0" t="s">
+      <c r="G302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="C303" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D303" s="0" t="s">
+      <c r="D303" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E303" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F303" s="0" t="s">
+      <c r="F303" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G303" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H303" s="0" t="s">
+      <c r="G303" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C304" s="0" t="s">
+      <c r="C304" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D304" s="0" t="s">
+      <c r="D304" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E304" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F304" s="0" t="s">
+      <c r="F304" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G304" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H304" s="0" t="s">
+      <c r="G304" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C305" s="0" t="s">
+      <c r="C305" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D305" s="0" t="s">
+      <c r="D305" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E305" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F305" s="0" t="s">
+      <c r="F305" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G305" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" s="0" t="s">
+      <c r="G305" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C306" s="0" t="s">
+      <c r="C306" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D306" s="0" t="s">
+      <c r="D306" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E306" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F306" s="0" t="s">
+      <c r="F306" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G306" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H306" s="0" t="s">
+      <c r="G306" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="C307" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D307" s="0" t="s">
+      <c r="D307" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E307" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F307" s="0" t="s">
+      <c r="F307" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G307" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H307" s="0" t="s">
+      <c r="G307" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C308" s="0" t="s">
+      <c r="C308" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D308" s="0" t="s">
+      <c r="D308" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E308" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F308" s="0" t="s">
+      <c r="F308" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G308" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" s="0" t="s">
+      <c r="G308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C309" s="0" t="s">
+      <c r="C309" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D309" s="0" t="s">
+      <c r="D309" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E309" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F309" s="0" t="s">
+      <c r="F309" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G309" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H309" s="0" t="s">
+      <c r="G309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C310" s="0" t="s">
+      <c r="C310" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D310" s="0" t="s">
+      <c r="D310" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E310" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F310" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G310" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H310" s="0" t="s">
+      <c r="G310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C311" s="0" t="s">
+      <c r="C311" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D311" s="0" t="s">
+      <c r="D311" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E311" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F311" s="0" t="s">
+      <c r="F311" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G311" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H311" s="0" t="s">
+      <c r="G311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C312" s="0" t="s">
+      <c r="C312" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D312" s="0" t="s">
+      <c r="D312" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E312" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F312" s="0" t="s">
+      <c r="F312" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G312" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H312" s="0" t="s">
+      <c r="G312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C313" s="0" t="s">
+      <c r="C313" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="D313" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E313" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F313" s="0" t="s">
+      <c r="F313" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G313" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H313" s="0" t="s">
+      <c r="G313" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C314" s="0" t="s">
+      <c r="C314" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D314" s="0" t="s">
+      <c r="D314" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F314" s="0" t="s">
+      <c r="F314" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G314" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" s="0" t="s">
+      <c r="G314" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C315" s="0" t="s">
+      <c r="C315" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D315" s="0" t="s">
+      <c r="D315" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E315" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F315" s="0" t="s">
+      <c r="F315" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G315" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H315" s="0" t="s">
+      <c r="G315" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C316" s="0" t="s">
+      <c r="C316" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D316" s="0" t="s">
+      <c r="D316" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F316" s="0" t="s">
+      <c r="F316" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G316" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H316" s="0" t="s">
+      <c r="G316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C317" s="0" t="s">
+      <c r="C317" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="D317" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E317" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F317" s="0" t="s">
+      <c r="F317" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="G317" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" s="0" t="s">
+      <c r="G317" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C318" s="0" t="s">
+      <c r="C318" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="D318" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F318" s="0" t="s">
+      <c r="F318" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="G318" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H318" s="0" t="s">
+      <c r="G318" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C319" s="0" t="s">
+      <c r="C319" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D319" s="0" t="s">
+      <c r="D319" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E319" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F319" s="0" t="s">
+      <c r="F319" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G319" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H319" s="0" t="s">
+      <c r="G319" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="A320" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B320" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C320" s="0" t="s">
+      <c r="C320" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D320" s="0" t="s">
+      <c r="D320" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E320" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F320" s="0" t="s">
+      <c r="F320" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G320" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" s="0" t="s">
+      <c r="G320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="A321" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B321" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C321" s="0" t="s">
+      <c r="C321" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D321" s="0" t="s">
+      <c r="D321" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E321" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F321" s="0" t="s">
+      <c r="F321" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G321" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H321" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="G321" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="B322" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C322" s="0" t="s">
+      <c r="C322" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D322" s="0" t="s">
+      <c r="D322" s="5" t="s">
         <v>451</v>
       </c>
       <c r="E322" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F322" s="0" t="s">
+      <c r="F322" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="G322" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H322" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+      <c r="G322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="B323" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C323" s="0" t="s">
+      <c r="C323" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D323" s="0" t="s">
+      <c r="D323" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E323" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F323" s="0" t="s">
+      <c r="F323" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G323" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H323" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+      <c r="G323" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="B324" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C324" s="0" t="s">
+      <c r="C324" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D324" s="0" t="s">
+      <c r="D324" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E324" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F324" s="0" t="s">
+      <c r="F324" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G324" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H324" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="G324" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C325" s="0" t="s">
+      <c r="C325" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D325" s="0" t="s">
+      <c r="D325" s="3" t="s">
         <v>458</v>
       </c>
       <c r="E325" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F325" s="0" t="s">
+      <c r="F325" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G325" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H325" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="G325" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C326" s="0" t="s">
+      <c r="C326" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D326" s="0" t="s">
+      <c r="D326" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E326" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F326" s="0" t="s">
+      <c r="F326" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G326" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H326" s="0" t="s">
+      <c r="G326" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="A327" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C327" s="0" t="s">
+      <c r="C327" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D327" s="0" t="s">
+      <c r="D327" s="3" t="s">
         <v>422</v>
       </c>
       <c r="E327" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F327" s="0" t="s">
+      <c r="F327" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G327" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H327" s="0" t="s">
+      <c r="G327" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+      <c r="A328" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="B328" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C328" s="0" t="s">
+      <c r="C328" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D328" s="0" t="s">
+      <c r="D328" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E328" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F328" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G328" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H328" s="0" t="s">
+      <c r="G328" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+      <c r="A329" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="B329" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C329" s="0" t="s">
+      <c r="C329" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D329" s="0" t="s">
+      <c r="D329" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E329" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F329" s="3" t="s">
+      <c r="F329" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G329" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H329" s="0" t="s">
+      <c r="G329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+      <c r="A330" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="B330" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C330" s="0" t="s">
+      <c r="C330" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D330" s="0" t="s">
+      <c r="D330" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F330" s="0" t="s">
+      <c r="F330" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="G330" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H330" s="0" t="s">
+      <c r="G330" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="A331" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C331" s="0" t="s">
+      <c r="C331" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D331" s="0" t="s">
+      <c r="D331" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E331" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F331" s="0" t="s">
+      <c r="F331" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="G331" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H331" s="0" t="s">
+      <c r="G331" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="C332" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="D332" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E332" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F332" s="0" t="s">
+      <c r="F332" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G332" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H332" s="0" t="s">
+      <c r="G332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="C333" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D333" s="0" t="s">
+      <c r="D333" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E333" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F333" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G333" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H333" s="0" t="s">
+      <c r="G333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="C334" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="D334" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E334" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="F334" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G334" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H334" s="0" t="s">
+      <c r="G334" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="C335" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D335" s="0" t="s">
+      <c r="D335" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E335" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F335" s="0" t="s">
+      <c r="F335" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G335" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H335" s="0" t="s">
+      <c r="G335" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C336" s="0" t="s">
+      <c r="C336" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D336" s="0" t="s">
+      <c r="D336" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E336" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F336" s="0" t="s">
+      <c r="F336" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G336" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H336" s="0" t="s">
+      <c r="G336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C337" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D337" s="0" t="s">
+      <c r="D337" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E337" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="F337" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="G337" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H337" s="0" t="s">
+      <c r="G337" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C338" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="D338" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E338" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F338" s="0" t="s">
+      <c r="F338" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G338" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H338" s="0" t="s">
+      <c r="G338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C339" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D339" s="0" t="s">
+      <c r="D339" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E339" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="F339" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G339" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H339" s="0" t="s">
+      <c r="G339" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C340" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="D340" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E340" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="F340" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G340" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H340" s="0" t="s">
+      <c r="G340" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+      <c r="A341" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C341" s="0" t="s">
+      <c r="C341" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D341" s="0" t="s">
+      <c r="D341" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E341" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="F341" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G341" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" s="0" t="s">
+      <c r="G341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+      <c r="A342" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C342" s="0" t="s">
+      <c r="C342" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D342" s="0" t="s">
+      <c r="D342" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E342" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F342" s="0" t="s">
+      <c r="F342" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G342" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H342" s="0" t="s">
+      <c r="G342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+      <c r="A343" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C343" s="0" t="s">
+      <c r="C343" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D343" s="0" t="s">
+      <c r="D343" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E343" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F343" s="3" t="s">
+      <c r="F343" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G343" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H343" s="0" t="s">
+      <c r="G343" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+      <c r="A344" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C344" s="0" t="s">
+      <c r="C344" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D344" s="0" t="s">
+      <c r="D344" s="3" t="s">
         <v>478</v>
       </c>
       <c r="E344" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F344" s="0" t="s">
+      <c r="F344" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G344" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H344" s="0" t="s">
+      <c r="G344" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+      <c r="A345" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C345" s="0" t="s">
+      <c r="C345" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D345" s="0" t="s">
+      <c r="D345" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E345" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F345" s="0" t="s">
+      <c r="F345" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="G345" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H345" s="0" t="s">
+      <c r="G345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+      <c r="A346" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C346" s="0" t="s">
+      <c r="C346" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D346" s="0" t="s">
+      <c r="D346" s="3" t="s">
         <v>454</v>
       </c>
       <c r="E346" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F346" s="0" t="s">
+      <c r="F346" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G346" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H346" s="0" t="s">
+      <c r="G346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+      <c r="A347" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C347" s="0" t="s">
+      <c r="C347" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D347" s="0" t="s">
+      <c r="D347" s="3" t="s">
         <v>458</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F347" s="0" t="s">
+      <c r="F347" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G347" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H347" s="0" t="s">
+      <c r="G347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+      <c r="A348" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="C348" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D348" s="0" t="s">
+      <c r="D348" s="3" t="s">
         <v>421</v>
       </c>
       <c r="E348" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F348" s="0" t="s">
+      <c r="F348" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="G348" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H348" s="0" t="s">
+      <c r="G348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+      <c r="A349" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C349" s="0" t="s">
+      <c r="C349" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D349" s="0" t="s">
+      <c r="D349" s="7" t="s">
         <v>421</v>
       </c>
       <c r="E349" s="2" t="n">
@@ -11029,24 +11438,24 @@
       <c r="F349" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="G349" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H349" s="0" t="s">
+      <c r="G349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H349" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="A350" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C350" s="0" t="s">
+      <c r="C350" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D350" s="0" t="s">
+      <c r="D350" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E350" s="2" t="n">
@@ -11055,24 +11464,24 @@
       <c r="F350" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="G350" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H350" s="0" t="s">
+      <c r="G350" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="A351" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C351" s="0" t="s">
+      <c r="C351" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D351" s="0" t="s">
+      <c r="D351" s="8" t="s">
         <v>421</v>
       </c>
       <c r="E351" s="2" t="n">
@@ -11081,24 +11490,24 @@
       <c r="F351" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G351" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H351" s="0" t="s">
+      <c r="G351" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H351" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="A352" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C352" s="0" t="s">
+      <c r="C352" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D352" s="0" t="s">
+      <c r="D352" s="7" t="s">
         <v>430</v>
       </c>
       <c r="E352" s="2" t="n">
@@ -11107,24 +11516,24 @@
       <c r="F352" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="G352" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H352" s="0" t="s">
+      <c r="G352" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+      <c r="A353" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C353" s="0" t="s">
+      <c r="C353" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D353" s="0" t="s">
+      <c r="D353" s="7" t="s">
         <v>492</v>
       </c>
       <c r="E353" s="2" t="n">
@@ -11133,24 +11542,24 @@
       <c r="F353" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="G353" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H353" s="0" t="s">
+      <c r="G353" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+      <c r="A354" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C354" s="0" t="s">
+      <c r="C354" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D354" s="0" t="s">
+      <c r="D354" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E354" s="2" t="n">
@@ -11159,24 +11568,24 @@
       <c r="F354" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="G354" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H354" s="0" t="s">
+      <c r="G354" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H354" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+      <c r="A355" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C355" s="0" t="s">
+      <c r="C355" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D355" s="0" t="s">
+      <c r="D355" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E355" s="2" t="n">
@@ -11185,24 +11594,24 @@
       <c r="F355" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="G355" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H355" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+      <c r="G355" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C356" s="0" t="s">
+      <c r="C356" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D356" s="0" t="s">
+      <c r="D356" s="10" t="s">
         <v>495</v>
       </c>
       <c r="E356" s="2" t="n">
@@ -11211,24 +11620,24 @@
       <c r="F356" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="G356" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H356" s="0" t="s">
+      <c r="G356" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H356" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+      <c r="A357" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B357" s="0" t="s">
+      <c r="B357" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C357" s="0" t="s">
+      <c r="C357" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D357" s="0" t="s">
+      <c r="D357" s="12" t="s">
         <v>422</v>
       </c>
       <c r="E357" s="2" t="n">
@@ -11237,24 +11646,24 @@
       <c r="F357" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="G357" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H357" s="0" t="s">
+      <c r="G357" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+      <c r="A358" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B358" s="0" t="s">
+      <c r="B358" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C358" s="0" t="s">
+      <c r="C358" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D358" s="0" t="s">
+      <c r="D358" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E358" s="2" t="n">
@@ -11263,24 +11672,24 @@
       <c r="F358" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="G358" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H358" s="0" t="s">
+      <c r="G358" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+      <c r="A359" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="0" t="s">
+      <c r="B359" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C359" s="0" t="s">
+      <c r="C359" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D359" s="0" t="s">
+      <c r="D359" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E359" s="2" t="n">
@@ -11289,24 +11698,24 @@
       <c r="F359" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="G359" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H359" s="0" t="s">
+      <c r="G359" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+      <c r="A360" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B360" s="0" t="s">
+      <c r="B360" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C360" s="0" t="s">
+      <c r="C360" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D360" s="0" t="s">
+      <c r="D360" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E360" s="2" t="n">
@@ -11315,24 +11724,24 @@
       <c r="F360" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="G360" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H360" s="0" t="s">
+      <c r="G360" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="A361" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="B361" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C361" s="0" t="s">
+      <c r="C361" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D361" s="0" t="s">
+      <c r="D361" s="16" t="s">
         <v>421</v>
       </c>
       <c r="E361" s="2" t="n">
@@ -11341,24 +11750,24 @@
       <c r="F361" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="G361" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H361" s="0" t="s">
+      <c r="G361" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H361" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+      <c r="A362" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B362" s="0" t="s">
+      <c r="B362" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C362" s="0" t="s">
+      <c r="C362" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="D362" s="0" t="s">
+      <c r="D362" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E362" s="2" t="n">
@@ -11367,24 +11776,24 @@
       <c r="F362" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="G362" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H362" s="0" t="s">
+      <c r="G362" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H362" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+      <c r="A363" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C363" s="0" t="s">
+      <c r="C363" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D363" s="0" t="s">
+      <c r="D363" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E363" s="2" t="n">
@@ -11393,24 +11802,24 @@
       <c r="F363" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="G363" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H363" s="0" t="s">
+      <c r="G363" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="A364" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B364" s="0" t="s">
+      <c r="B364" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C364" s="0" t="s">
+      <c r="C364" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D364" s="0" t="s">
+      <c r="D364" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E364" s="2" t="n">
@@ -11419,24 +11828,24 @@
       <c r="F364" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G364" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H364" s="0" t="s">
+      <c r="G364" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H364" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="A365" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B365" s="0" t="s">
+      <c r="B365" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C365" s="0" t="s">
+      <c r="C365" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D365" s="0" t="s">
+      <c r="D365" s="16" t="s">
         <v>421</v>
       </c>
       <c r="E365" s="2" t="n">
@@ -11445,10 +11854,10 @@
       <c r="F365" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="G365" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H365" s="0" t="s">
+      <c r="G365" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11456,13 +11865,13 @@
       <c r="A366" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B366" s="0" t="s">
+      <c r="B366" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C366" s="0" t="s">
+      <c r="C366" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D366" s="0" t="s">
+      <c r="D366" s="7" t="s">
         <v>430</v>
       </c>
       <c r="E366" s="2" t="n">
@@ -11471,24 +11880,24 @@
       <c r="F366" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="G366" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H366" s="0" t="s">
+      <c r="G366" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H366" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="A367" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C367" s="0" t="s">
+      <c r="C367" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D367" s="0" t="s">
+      <c r="D367" s="7" t="s">
         <v>492</v>
       </c>
       <c r="E367" s="2" t="n">
@@ -11497,24 +11906,24 @@
       <c r="F367" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="G367" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H367" s="0" t="s">
+      <c r="G367" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="A368" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C368" s="0" t="s">
+      <c r="C368" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D368" s="0" t="s">
+      <c r="D368" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E368" s="2" t="n">
@@ -11523,24 +11932,24 @@
       <c r="F368" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="G368" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H368" s="0" t="s">
+      <c r="G368" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H368" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="A369" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C369" s="0" t="s">
+      <c r="C369" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D369" s="0" t="s">
+      <c r="D369" s="7" t="s">
         <v>495</v>
       </c>
       <c r="E369" s="2" t="n">
@@ -11549,24 +11958,24 @@
       <c r="F369" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="G369" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H369" s="0" t="s">
+      <c r="G369" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H369" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+      <c r="A370" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="B370" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C370" s="0" t="s">
+      <c r="C370" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D370" s="0" t="s">
+      <c r="D370" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E370" s="2" t="n">
@@ -11575,24 +11984,24 @@
       <c r="F370" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="G370" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H370" s="0" t="s">
+      <c r="G370" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H370" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="A371" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B371" s="0" t="s">
+      <c r="B371" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C371" s="0" t="s">
+      <c r="C371" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D371" s="0" t="s">
+      <c r="D371" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E371" s="2" t="n">
@@ -11601,24 +12010,24 @@
       <c r="F371" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="G371" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H371" s="0" t="s">
+      <c r="G371" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+      <c r="A372" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="B372" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C372" s="0" t="s">
+      <c r="C372" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D372" s="0" t="s">
+      <c r="D372" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E372" s="2" t="n">
@@ -11627,24 +12036,24 @@
       <c r="F372" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="G372" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H372" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+      <c r="G372" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B373" s="0" t="s">
+      <c r="B373" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C373" s="0" t="s">
+      <c r="C373" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D373" s="0" t="s">
+      <c r="D373" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E373" s="2" t="n">
@@ -11661,16 +12070,16 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+      <c r="A374" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B374" s="0" t="s">
+      <c r="B374" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C374" s="0" t="s">
+      <c r="C374" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D374" s="0" t="s">
+      <c r="D374" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E374" s="2" t="n">
@@ -11686,23 +12095,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+    <row r="375" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="B375" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C375" s="0" t="s">
+      <c r="C375" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D375" s="0" t="s">
+      <c r="D375" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E375" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F375" s="0" t="s">
+      <c r="F375" s="3" t="s">
         <v>509</v>
       </c>
       <c r="G375" s="0" t="s">
@@ -11713,16 +12122,16 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+      <c r="A376" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B376" s="0" t="s">
+      <c r="B376" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C376" s="0" t="s">
+      <c r="C376" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D376" s="0" t="s">
+      <c r="D376" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E376" s="2" t="n">
@@ -11739,16 +12148,16 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+      <c r="A377" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B377" s="0" t="s">
+      <c r="B377" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C377" s="0" t="s">
+      <c r="C377" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D377" s="0" t="s">
+      <c r="D377" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E377" s="2" t="n">
@@ -11764,23 +12173,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+    <row r="378" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="B378" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C378" s="0" t="s">
+      <c r="C378" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D378" s="0" t="s">
+      <c r="D378" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E378" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F378" s="3" t="s">
+      <c r="F378" s="4" t="s">
         <v>525</v>
       </c>
       <c r="G378" s="0" t="s">
@@ -11790,23 +12199,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+    <row r="379" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="B379" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C379" s="0" t="s">
+      <c r="C379" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D379" s="0" t="s">
+      <c r="D379" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E379" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F379" s="3" t="s">
+      <c r="F379" s="4" t="s">
         <v>526</v>
       </c>
       <c r="G379" s="0" t="s">
@@ -11816,23 +12225,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+    <row r="380" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="B380" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C380" s="0" t="s">
+      <c r="C380" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D380" s="0" t="s">
+      <c r="D380" s="3" t="s">
         <v>257</v>
       </c>
       <c r="E380" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F380" s="3" t="s">
+      <c r="F380" s="4" t="s">
         <v>527</v>
       </c>
       <c r="G380" s="0" t="s">
@@ -11842,387 +12251,387 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+    <row r="381" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B381" s="0" t="s">
+      <c r="B381" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C381" s="0" t="s">
+      <c r="C381" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D381" s="0" t="s">
+      <c r="D381" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E381" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F381" s="3" t="s">
+      <c r="F381" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G381" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H381" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+      <c r="G381" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B382" s="0" t="s">
+      <c r="B382" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C382" s="0" t="s">
+      <c r="C382" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D382" s="0" t="s">
+      <c r="D382" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E382" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F382" s="0" t="s">
+      <c r="F382" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G382" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H382" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+      <c r="G382" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C383" s="0" t="s">
+      <c r="C383" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D383" s="0" t="s">
+      <c r="D383" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E383" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F383" s="3" t="s">
+      <c r="F383" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="G383" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H383" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+      <c r="G383" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B384" s="0" t="s">
+      <c r="B384" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C384" s="0" t="s">
+      <c r="C384" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D384" s="0" t="s">
+      <c r="D384" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E384" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F384" s="3" t="s">
+      <c r="F384" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G384" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H384" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+      <c r="G384" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="B385" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C385" s="0" t="s">
+      <c r="C385" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D385" s="0" t="s">
+      <c r="D385" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E385" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F385" s="3" t="s">
+      <c r="F385" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G385" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H385" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+      <c r="G385" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B386" s="0" t="s">
+      <c r="B386" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C386" s="0" t="s">
+      <c r="C386" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D386" s="0" t="s">
+      <c r="D386" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E386" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F386" s="0" t="s">
+      <c r="F386" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G386" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H386" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="G386" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="B387" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C387" s="0" t="s">
+      <c r="C387" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D387" s="0" t="s">
+      <c r="D387" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E387" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F387" s="3" t="s">
+      <c r="F387" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G387" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H387" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+      <c r="G387" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C388" s="0" t="s">
+      <c r="C388" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D388" s="0" t="s">
+      <c r="D388" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E388" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F388" s="0" t="s">
+      <c r="F388" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="G388" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H388" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+      <c r="G388" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="B389" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C389" s="0" t="s">
+      <c r="C389" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D389" s="0" t="s">
+      <c r="D389" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E389" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F389" s="0" t="s">
+      <c r="F389" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G389" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H389" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="G389" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="B390" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C390" s="0" t="s">
+      <c r="C390" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D390" s="0" t="s">
+      <c r="D390" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E390" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F390" s="0" t="s">
+      <c r="F390" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="G390" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H390" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="G390" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B391" s="0" t="s">
+      <c r="B391" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C391" s="0" t="s">
+      <c r="C391" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D391" s="0" t="s">
+      <c r="D391" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E391" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F391" s="0" t="s">
+      <c r="F391" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="G391" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H391" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+      <c r="G391" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B392" s="0" t="s">
+      <c r="B392" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C392" s="0" t="s">
+      <c r="C392" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D392" s="0" t="s">
+      <c r="D392" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E392" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F392" s="3" t="s">
+      <c r="F392" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G392" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H392" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+      <c r="G392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B393" s="0" t="s">
+      <c r="B393" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C393" s="0" t="s">
+      <c r="C393" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D393" s="0" t="s">
+      <c r="D393" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E393" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F393" s="3" t="s">
+      <c r="F393" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G393" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H393" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+      <c r="G393" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="0" t="s">
+      <c r="C394" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D394" s="0" t="s">
+      <c r="D394" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E394" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F394" s="0" t="s">
+      <c r="F394" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="G394" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H394" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="G394" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C395" s="0" t="s">
+      <c r="C395" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D395" s="0" t="s">
+      <c r="D395" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E395" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F395" s="0" t="s">
+      <c r="F395" s="4" t="s">
         <v>542</v>
       </c>
       <c r="G395" s="0" t="s">
@@ -12232,1229 +12641,1607 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+    <row r="396" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B396" s="0" t="s">
+      <c r="B396" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C396" s="0" t="s">
+      <c r="C396" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D396" s="0" t="s">
+      <c r="D396" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E396" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F396" s="3" t="s">
+      <c r="F396" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G396" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H396" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+      <c r="G396" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B397" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C397" s="0" t="s">
+      <c r="C397" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D397" s="0" t="s">
+      <c r="D397" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E397" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F397" s="3" t="s">
+      <c r="F397" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="G397" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H397" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="G397" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="B398" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C398" s="0" t="s">
+      <c r="C398" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D398" s="0" t="s">
+      <c r="D398" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E398" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F398" s="3" t="s">
+      <c r="F398" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G398" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H398" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="G398" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="B399" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C399" s="0" t="s">
+      <c r="C399" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D399" s="0" t="s">
+      <c r="D399" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E399" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F399" s="3" t="s">
+      <c r="F399" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="G399" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H399" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="G399" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="B400" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C400" s="0" t="s">
+      <c r="C400" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D400" s="0" t="s">
+      <c r="D400" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E400" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F400" s="3" t="s">
+      <c r="F400" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G400" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H400" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="G400" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B401" s="0" t="s">
+      <c r="B401" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C401" s="0" t="s">
+      <c r="C401" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D401" s="0" t="s">
+      <c r="D401" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E401" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F401" s="0" t="s">
+      <c r="F401" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="G401" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H401" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="G401" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="B402" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C402" s="0" t="s">
+      <c r="C402" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D402" s="0" t="s">
+      <c r="D402" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E402" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F402" s="3" t="s">
+      <c r="F402" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G402" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H402" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="G402" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B403" s="0" t="s">
+      <c r="B403" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C403" s="0" t="s">
+      <c r="C403" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D403" s="0" t="s">
+      <c r="D403" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E403" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F403" s="0" t="s">
+      <c r="F403" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="G403" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H403" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="G403" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B404" s="0" t="s">
+      <c r="B404" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C404" s="0" t="s">
+      <c r="C404" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D404" s="0" t="s">
+      <c r="D404" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E404" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F404" s="0" t="s">
+      <c r="F404" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="G404" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H404" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="G404" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B405" s="0" t="s">
+      <c r="B405" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C405" s="0" t="s">
+      <c r="C405" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D405" s="0" t="s">
+      <c r="D405" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E405" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F405" s="0" t="s">
+      <c r="F405" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G405" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H405" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="G405" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B406" s="0" t="s">
+      <c r="B406" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C406" s="0" t="s">
+      <c r="C406" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D406" s="0" t="s">
+      <c r="D406" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E406" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F406" s="0" t="s">
+      <c r="F406" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="G406" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H406" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+      <c r="G406" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B407" s="0" t="s">
+      <c r="B407" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C407" s="0" t="s">
+      <c r="C407" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D407" s="0" t="s">
+      <c r="D407" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E407" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F407" s="0" t="s">
+      <c r="F407" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="G407" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H407" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="G407" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B408" s="0" t="s">
+      <c r="B408" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C408" s="0" t="s">
+      <c r="C408" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D408" s="0" t="s">
+      <c r="D408" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E408" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F408" s="0" t="s">
+      <c r="F408" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G408" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H408" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+      <c r="G408" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B409" s="0" t="s">
+      <c r="B409" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C409" s="0" t="s">
+      <c r="C409" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D409" s="0" t="s">
+      <c r="D409" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E409" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F409" s="3" t="s">
+      <c r="F409" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G409" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H409" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+      <c r="G409" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B410" s="0" t="s">
+      <c r="B410" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C410" s="0" t="s">
+      <c r="C410" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D410" s="0" t="s">
+      <c r="D410" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E410" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F410" s="0" t="s">
+      <c r="F410" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G410" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H410" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="G410" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B411" s="0" t="s">
+      <c r="B411" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C411" s="0" t="s">
+      <c r="C411" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D411" s="0" t="s">
+      <c r="D411" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E411" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F411" s="0" t="s">
+      <c r="F411" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="G411" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H411" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+      <c r="G411" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B412" s="0" t="s">
+      <c r="B412" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C412" s="0" t="s">
+      <c r="C412" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D412" s="0" t="s">
+      <c r="D412" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E412" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F412" s="0" t="s">
+      <c r="F412" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G412" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H412" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+      <c r="G412" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B413" s="0" t="s">
+      <c r="B413" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C413" s="0" t="s">
+      <c r="C413" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D413" s="0" t="s">
+      <c r="D413" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E413" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F413" s="0" t="s">
+      <c r="F413" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G413" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H413" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="G413" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="B414" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C414" s="0" t="s">
+      <c r="C414" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D414" s="0" t="s">
+      <c r="D414" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E414" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F414" s="0" t="s">
+      <c r="F414" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G414" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H414" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="G414" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="B415" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C415" s="0" t="s">
+      <c r="C415" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D415" s="0" t="s">
+      <c r="D415" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E415" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F415" s="0" t="s">
+      <c r="F415" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G415" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H415" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="G415" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B416" s="0" t="s">
+      <c r="B416" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C416" s="0" t="s">
+      <c r="C416" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D416" s="0" t="s">
+      <c r="D416" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E416" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F416" s="0" t="s">
+      <c r="F416" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G416" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H416" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="G416" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B417" s="0" t="s">
+      <c r="B417" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C417" s="0" t="s">
+      <c r="C417" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D417" s="0" t="s">
+      <c r="D417" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E417" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F417" s="0" t="s">
+      <c r="F417" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G417" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H417" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="G417" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B418" s="0" t="s">
+      <c r="B418" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C418" s="0" t="s">
+      <c r="C418" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D418" s="0" t="s">
+      <c r="D418" s="3" t="s">
         <v>416</v>
       </c>
       <c r="E418" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F418" s="0" t="s">
+      <c r="F418" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G418" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H418" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="G418" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B419" s="0" t="s">
+      <c r="B419" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C419" s="0" t="s">
+      <c r="C419" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D419" s="0" t="s">
+      <c r="D419" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E419" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F419" s="0" t="s">
+      <c r="F419" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="G419" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H419" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+      <c r="G419" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B420" s="0" t="s">
+      <c r="B420" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C420" s="0" t="s">
+      <c r="C420" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D420" s="0" t="s">
+      <c r="D420" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E420" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F420" s="0" t="s">
+      <c r="F420" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G420" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H420" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+      <c r="G420" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B421" s="0" t="s">
+      <c r="B421" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="C421" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D421" s="0" t="s">
+      <c r="D421" s="7" t="s">
         <v>458</v>
       </c>
       <c r="E421" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F421" s="0" t="s">
+      <c r="F421" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G421" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H421" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+      <c r="G421" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B422" s="0" t="s">
+      <c r="B422" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C422" s="0" t="s">
+      <c r="C422" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D422" s="0" t="s">
+      <c r="D422" s="10" t="s">
         <v>495</v>
       </c>
       <c r="E422" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F422" s="0" t="s">
+      <c r="F422" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G422" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H422" s="0" t="s">
+      <c r="G422" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H422" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+      <c r="A423" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="B423" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C423" s="0" t="s">
+      <c r="C423" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D423" s="0" t="s">
+      <c r="D423" s="12" t="s">
         <v>422</v>
       </c>
       <c r="E423" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F423" s="0" t="s">
+      <c r="F423" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G423" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H423" s="0" t="s">
+      <c r="G423" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H423" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+      <c r="A424" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B424" s="0" t="s">
+      <c r="B424" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C424" s="0" t="s">
+      <c r="C424" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D424" s="0" t="s">
+      <c r="D424" s="14" t="s">
         <v>422</v>
       </c>
       <c r="E424" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F424" s="0" t="s">
+      <c r="F424" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="G424" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H424" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+      <c r="G424" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B425" s="0" t="s">
+      <c r="B425" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C425" s="0" t="s">
+      <c r="C425" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D425" s="0" t="s">
+      <c r="D425" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E425" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F425" s="0" t="s">
+      <c r="F425" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="G425" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H425" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+      <c r="G425" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B426" s="0" t="s">
+      <c r="B426" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C426" s="0" t="s">
+      <c r="C426" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D426" s="0" t="s">
+      <c r="D426" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E426" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F426" s="0" t="s">
+      <c r="F426" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="G426" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H426" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+      <c r="G426" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B427" s="0" t="s">
+      <c r="B427" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C427" s="0" t="s">
+      <c r="C427" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D427" s="0" t="s">
+      <c r="D427" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E427" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F427" s="0" t="s">
+      <c r="F427" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G427" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H427" s="0" t="s">
+      <c r="G427" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H427" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+      <c r="A428" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="B428" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C428" s="0" t="s">
+      <c r="C428" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D428" s="0" t="s">
+      <c r="D428" s="7" t="s">
         <v>421</v>
       </c>
       <c r="E428" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F428" s="0" t="s">
+      <c r="F428" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G428" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H428" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+      <c r="G428" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B429" s="0" t="s">
+      <c r="B429" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C429" s="0" t="s">
+      <c r="C429" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D429" s="0" t="s">
+      <c r="D429" s="7" t="s">
         <v>421</v>
       </c>
       <c r="E429" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F429" s="0" t="s">
+      <c r="F429" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="G429" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H429" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
+      <c r="G429" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B430" s="0" t="s">
+      <c r="B430" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C430" s="0" t="s">
+      <c r="C430" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D430" s="0" t="s">
+      <c r="D430" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E430" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F430" s="0" t="s">
+      <c r="F430" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="G430" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H430" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
+      <c r="G430" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B431" s="0" t="s">
+      <c r="B431" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C431" s="0" t="s">
+      <c r="C431" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D431" s="0" t="s">
+      <c r="D431" s="7" t="s">
         <v>421</v>
       </c>
       <c r="E431" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F431" s="0" t="s">
+      <c r="F431" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="G431" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H431" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
+      <c r="G431" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B432" s="0" t="s">
+      <c r="B432" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C432" s="0" t="s">
+      <c r="C432" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D432" s="0" t="s">
+      <c r="D432" s="7" t="s">
         <v>454</v>
       </c>
       <c r="E432" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F432" s="0" t="s">
+      <c r="F432" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="G432" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H432" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+      <c r="G432" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B433" s="0" t="s">
+      <c r="B433" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C433" s="0" t="s">
+      <c r="C433" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D433" s="0" t="s">
+      <c r="D433" s="20" t="s">
         <v>451</v>
       </c>
       <c r="E433" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F433" s="0" t="s">
+      <c r="F433" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G433" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H433" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="G433" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B434" s="0" t="s">
+      <c r="B434" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C434" s="0" t="s">
+      <c r="C434" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="D434" s="0" t="s">
+      <c r="D434" s="22" t="s">
         <v>454</v>
       </c>
       <c r="E434" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F434" s="0" t="s">
+      <c r="F434" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G434" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H434" s="0" t="s">
+      <c r="G434" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H434" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
+      <c r="A435" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B435" s="0" t="s">
+      <c r="B435" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C435" s="0" t="s">
+      <c r="C435" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="D435" s="0" t="s">
+      <c r="D435" s="24" t="s">
         <v>421</v>
       </c>
       <c r="E435" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F435" s="0" t="s">
+      <c r="F435" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="G435" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H435" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+      <c r="G435" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B436" s="0" t="s">
+      <c r="B436" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C436" s="0" t="s">
+      <c r="C436" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="D436" s="0" t="s">
+      <c r="D436" s="24" t="s">
         <v>454</v>
       </c>
       <c r="E436" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F436" s="0" t="s">
+      <c r="F436" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G436" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H436" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+      <c r="G436" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B437" s="0" t="s">
+      <c r="B437" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C437" s="0" t="s">
+      <c r="C437" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="D437" s="0" t="s">
+      <c r="D437" s="22" t="s">
         <v>454</v>
       </c>
       <c r="E437" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F437" s="0" t="s">
+      <c r="F437" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="G437" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H437" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
+      <c r="G437" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B438" s="0" t="s">
+      <c r="B438" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C438" s="0" t="s">
+      <c r="C438" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="D438" s="0" t="s">
+      <c r="D438" s="24" t="s">
         <v>421</v>
       </c>
       <c r="E438" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F438" s="0" t="s">
+      <c r="F438" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="G438" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H438" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+      <c r="G438" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B439" s="0" t="s">
+      <c r="B439" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C439" s="0" t="s">
+      <c r="C439" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="D439" s="0" t="s">
+      <c r="D439" s="24" t="s">
         <v>454</v>
       </c>
       <c r="E439" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F439" s="0" t="s">
+      <c r="F439" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="G439" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H439" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
+      <c r="G439" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B440" s="0" t="s">
+      <c r="B440" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C440" s="0" t="s">
+      <c r="C440" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D440" s="0" t="s">
+      <c r="D440" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E440" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F440" s="0" t="s">
+      <c r="F440" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="G440" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H440" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
+      <c r="G440" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B441" s="0" t="s">
+      <c r="B441" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C441" s="0" t="s">
+      <c r="C441" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D441" s="0" t="s">
+      <c r="D441" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E441" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F441" s="0" t="s">
+      <c r="F441" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="G441" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H441" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
+      <c r="G441" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="B442" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C442" s="0" t="s">
+      <c r="C442" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D442" s="0" t="s">
+      <c r="D442" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E442" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F442" s="0" t="s">
+      <c r="F442" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G442" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H442" s="0" t="s">
+      <c r="G442" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B443" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C443" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D443" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E443" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F443" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D444" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E444" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F444" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B445" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C445" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="D445" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E445" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F445" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C446" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D446" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E446" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F446" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G446" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H446" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D447" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E447" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F447" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G447" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H447" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B448" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D448" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E448" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F448" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B449" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E449" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F449" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B450" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E450" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F450" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B451" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F451" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B452" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E452" s="2" t="n">
+        <v>43887.5625</v>
+      </c>
+      <c r="F452" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H452" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C159" r:id="rId1" display="nachumshayil@gmail.com"/>
+    <hyperlink ref="D159" r:id="rId2" display="nachushay@gmail.com"/>
+    <hyperlink ref="C160" r:id="rId3" display="itaisenior@gmail.com"/>
+    <hyperlink ref="D160" r:id="rId4" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="D161" r:id="rId5" display="bittonnir12@gmail.com"/>
+    <hyperlink ref="D188" r:id="rId6" display="itaisenior@gmail.com"/>
+    <hyperlink ref="C191" r:id="rId7" display="leniyadoniv@gmail.com"/>
+    <hyperlink ref="C192" r:id="rId8" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="D193" r:id="rId9" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="D195" r:id="rId10" display="itaisenior@gmail.com"/>
+    <hyperlink ref="C198" r:id="rId11" display="leniyadoniv@gmail.com"/>
+    <hyperlink ref="C199" r:id="rId12" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="D200" r:id="rId13" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="C250" r:id="rId14" display="tzahiamit7@gmail.com"/>
+    <hyperlink ref="C251" r:id="rId15" display="cyghtinc@gmail.com"/>
+    <hyperlink ref="C254" r:id="rId16" display="omertamir609@gmail.com"/>
+    <hyperlink ref="D255" r:id="rId17" display="omertamir609@gmail.com"/>
+    <hyperlink ref="C257" r:id="rId18" display="shrnsagiv@gmail.com"/>
+    <hyperlink ref="C258" r:id="rId19" display="dony1098765432@gmail.com"/>
+    <hyperlink ref="D258" r:id="rId20" display="sixsevensix67676@gmail.com"/>
+    <hyperlink ref="C259" r:id="rId21" display="rontiddler560@gmail.com"/>
+    <hyperlink ref="D259" r:id="rId22" display="halachme@gmail.com"/>
+    <hyperlink ref="C260" r:id="rId23" display="gregneri12@gmail.com"/>
+    <hyperlink ref="D260" r:id="rId24" display="halachme@gmail.com"/>
+    <hyperlink ref="C261" r:id="rId25" display="sinuspai@gmail.com"/>
+    <hyperlink ref="C264" r:id="rId26" display="omertamir609@gmail.com"/>
+    <hyperlink ref="D265" r:id="rId27" display="omertamir609@gmail.com"/>
+    <hyperlink ref="C267" r:id="rId28" display="shrnsagiv@gmail.com"/>
+    <hyperlink ref="D268" r:id="rId29" display="itaisenior@gmail.com"/>
+    <hyperlink ref="C271" r:id="rId30" display="leniyadoniv@gmail.com"/>
+    <hyperlink ref="C272" r:id="rId31" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="C278" r:id="rId32" display="jorjkluni03@gmail.com"/>
+    <hyperlink ref="D278" r:id="rId33" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="D279" r:id="rId34" display="jorjkluni03@gmail.com"/>
+    <hyperlink ref="C280" r:id="rId35" display="nevilgreen12@gmail.com"/>
+    <hyperlink ref="D280" r:id="rId36" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="C281" r:id="rId37" display="stevewonder3001@gmail.com"/>
+    <hyperlink ref="D281" r:id="rId38" display="budoyoni@gmail.com"/>
+    <hyperlink ref="C282" r:id="rId39" display="sixsevensix67676@gmail.com"/>
+    <hyperlink ref="D282" r:id="rId40" display="stevewonder3001@gmail.com"/>
+    <hyperlink ref="C283" r:id="rId41" display="dony1098765432@gmail.com"/>
+    <hyperlink ref="D283" r:id="rId42" display="sixsevensix67676@gmail.com"/>
+    <hyperlink ref="C284" r:id="rId43" display="rontiddler560@gmail.com"/>
+    <hyperlink ref="D284" r:id="rId44" display="halachme@gmail.com"/>
+    <hyperlink ref="C285" r:id="rId45" display="jorjkluni03@gmail.com"/>
+    <hyperlink ref="D285" r:id="rId46" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="D286" r:id="rId47" display="jorjkluni03@gmail.com"/>
+    <hyperlink ref="C287" r:id="rId48" display="nevilgreen12@gmail.com"/>
+    <hyperlink ref="D287" r:id="rId49" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="C288" r:id="rId50" display="hermanliran@gmail.com"/>
+    <hyperlink ref="C289" r:id="rId51" display="itaisenior@gmail.com"/>
+    <hyperlink ref="D289" r:id="rId52" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="D290" r:id="rId53" display="bittonnir12@gmail.com"/>
+    <hyperlink ref="C293" r:id="rId54" display="freelancernachus@gmail.com"/>
+    <hyperlink ref="C294" r:id="rId55" display="sm6502345@gmail.com"/>
+    <hyperlink ref="D294" r:id="rId56" display="cybworking@gmail.com"/>
+    <hyperlink ref="C295" r:id="rId57" display="ronoren61@gmail.com"/>
+    <hyperlink ref="D295" r:id="rId58" display="nitanoren23@gmail.com"/>
+    <hyperlink ref="C296" r:id="rId59" display="nitanoren23@gmail.com"/>
+    <hyperlink ref="D296" r:id="rId60" display="ronoren61@gmail.com"/>
+    <hyperlink ref="C298" r:id="rId61" display="freelancernachus@gmail.com"/>
+    <hyperlink ref="C299" r:id="rId62" display="budoyoni@gmail.com"/>
+    <hyperlink ref="D299" r:id="rId63" display="sm6502345@gmail.com"/>
+    <hyperlink ref="C300" r:id="rId64" display="budoyoni2@gmail.com"/>
+    <hyperlink ref="D300" r:id="rId65" display="budoyoni@gmail.com"/>
+    <hyperlink ref="C301" r:id="rId66" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="C303" r:id="rId67" display="ruthrschmidt@gmail.com"/>
+    <hyperlink ref="D322" r:id="rId68" display="moshemask10@gmail.com"/>
+    <hyperlink ref="C324" r:id="rId69" display="arthurkbaker58@gmail.com"/>
+    <hyperlink ref="D326" r:id="rId70" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="C346" r:id="rId71" display="arthurkbaker58@gmail.com"/>
+    <hyperlink ref="D348" r:id="rId72" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D349" r:id="rId73" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D351" r:id="rId74" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="C357" r:id="rId75" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="C358" r:id="rId76" display="ruthrschmidt@gmail.com"/>
+    <hyperlink ref="C370" r:id="rId77" display="gazittalia1@gmail.com"/>
+    <hyperlink ref="D370" r:id="rId78" display="hermanliran@gmail.com"/>
+    <hyperlink ref="C371" r:id="rId79" display="leviadlevi22@gmail.com"/>
+    <hyperlink ref="D371" r:id="rId80" display="gazittalia1@gmail.com"/>
+    <hyperlink ref="C372" r:id="rId81" display="bittonnir12@gmail.com"/>
+    <hyperlink ref="D372" r:id="rId82" display="nevilgreen@gmail.com"/>
+    <hyperlink ref="D373" r:id="rId83" display="jorjkluni03@gmail.com"/>
+    <hyperlink ref="C374" r:id="rId84" display="nevilgreen12@gmail.com"/>
+    <hyperlink ref="D374" r:id="rId85" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="C375" r:id="rId86" display="hermanliran@gmail.com"/>
+    <hyperlink ref="C376" r:id="rId87" display="gazittalia1@gmail.com"/>
+    <hyperlink ref="D376" r:id="rId88" display="hermanliran@gmail.com"/>
+    <hyperlink ref="C377" r:id="rId89" display="leviadlevi22@gmail.com"/>
+    <hyperlink ref="D377" r:id="rId90" display="gazittalia1@gmail.com"/>
+    <hyperlink ref="C378" r:id="rId91" display="bittonnir12@gmail.com"/>
+    <hyperlink ref="D378" r:id="rId92" display="nevilgreen@gmail.com"/>
+    <hyperlink ref="D379" r:id="rId93" display="shmulmaor2@gmail.com"/>
+    <hyperlink ref="C380" r:id="rId94" display="nachumshayil@gmail.com"/>
+    <hyperlink ref="D380" r:id="rId95" display="nachushay@gmail.com"/>
+    <hyperlink ref="C381" r:id="rId96" display="itaisenior@gmail.com"/>
+    <hyperlink ref="D381" r:id="rId97" display="vikicrestina@gmail.com"/>
+    <hyperlink ref="D382" r:id="rId98" display="bittonnir12@gmail.com"/>
+    <hyperlink ref="D396" r:id="rId99" display="itaisenior@gmail.com"/>
+    <hyperlink ref="C405" r:id="rId100" display="leniyadoniv@gmail.com"/>
+    <hyperlink ref="C406" r:id="rId101" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="D407" r:id="rId102" display="rotemzinger3@gmail.com"/>
+    <hyperlink ref="D415" r:id="rId103" display="omertamir609@gmail.com"/>
+    <hyperlink ref="C417" r:id="rId104" display="shrnsagiv@gmail.com"/>
+    <hyperlink ref="C420" r:id="rId105" display="arthurkbaker58@gmail.com"/>
+    <hyperlink ref="C423" r:id="rId106" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D428" r:id="rId107" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D429" r:id="rId108" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D431" r:id="rId109" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D433" r:id="rId110" display="moshemask10@gmail.com"/>
+    <hyperlink ref="D435" r:id="rId111" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D438" r:id="rId112" display="dorothynhouck@gmail.com"/>
+    <hyperlink ref="D440" r:id="rId113" display="omertamir609@gmail.com"/>
+    <hyperlink ref="C442" r:id="rId114" display="shrnsagiv@gmail.com"/>
+    <hyperlink ref="D445" r:id="rId115" display="evenrotem@gmail.com"/>
+    <hyperlink ref="D446" r:id="rId116" display="moshemask10@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -1815,7 +1815,7 @@
     <t xml:space="preserve">this Duty free app helps me to shop variety of personal needs (cosmetics, vitamins, electronics, etc) with many benefits. It makes shopping so much easier and safer. Highly recommended!</t>
   </si>
   <si>
-    <t xml:space="preserve">I best app for shopping !! It definitely needs more recognisation . Even BTS recommend , Army let's make this app the best !!!!</t>
+    <t xml:space="preserve">I best app for shopping. It definitely needs more recognisation . Even BTS recommend , Army let's make this app the best.</t>
   </si>
   <si>
     <t xml:space="preserve">It is very simple to understand and shows all sales</t>
@@ -1921,7 +1921,7 @@
     <t xml:space="preserve">online comapring of duty free products and shops. Amazing duty free prices and comparison</t>
   </si>
   <si>
-    <t xml:space="preserve">off topic duty free just love this amazing duty free app.</t>
+    <t xml:space="preserve">off topic- duty free- just love this amazing duty free app.</t>
   </si>
   <si>
     <t xml:space="preserve">fall in love in duty free and then this app of duty free… all I ever needed.</t>
@@ -2366,8 +2366,8 @@
   </sheetPr>
   <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F451" activeCellId="0" sqref="F451"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C405" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F407" activeCellId="0" sqref="F407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12927,7 +12927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
         <v>511</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>14</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13730,7 +13730,7 @@
         <v>14</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13759,7 +13759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
         <v>511</v>
       </c>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -1382,26 +1382,7 @@
     <t xml:space="preserve">moshemask10@gmail.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">passive income</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, that makes you more at risk. Look for items that generate passive income so that you can pay off debt without sacrifice. The more you save, the less you will need to borrow.</t>
-    </r>
+    <t xml:space="preserve">passive income, that makes you more at risk. Look for items that generate passive income so that you can pay off debt without sacrifice. The more you save, the less you will need to borrow.</t>
   </si>
   <si>
     <t xml:space="preserve">thomascnoel893@gmail.com</t>
@@ -1410,98 +1391,22 @@
     <t xml:space="preserve">kimcpeckham@gmail.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">passive income application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> form. We are a society where service is valued more than profits.</t>
-    </r>
+    <t xml:space="preserve">passive income application form. We are a society where service is valued more than profits.</t>
   </si>
   <si>
     <t xml:space="preserve">arthurkbaker58@gmail.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">passive income application is the best</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> way to get what you want. Don't hold out for that opportunity, because you'll get it too late. As you build your skills, you'll find that you are exposed to different management philosophies. Look for ways to work with each one. This is what's called an ongoing education. You're building skills that will serve you well as you navigate the world of money management. That's how you find your niche. That's what makes this profession so fun.</t>
-    </r>
+    <t xml:space="preserve">passive income application is the best way to get what you want. Don't hold out for that opportunity, because you'll get it too late. As you build your skills, you'll find that you are exposed to different management philosophies. Look for ways to work with each one. This is what's called an ongoing education. You're building skills that will serve you well as you navigate the world of money management. That's how you find your niche. That's what makes this profession so fun.</t>
   </si>
   <si>
     <t xml:space="preserve"> dorothynhouck@gmail.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">passive income application is the best application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> to be made on the basis of the Census Long Form – Explanatory Guide. The difference is that it is flexible. You can choose to have a LFA for your home, or for the rest of your life. Your home could also be a part of a mixed ownership. If you don't have a LFA or if you are renting, we may not be able to help with your mortgage interest, and so we will not be able to provide any mortgage insurance cover. Please refer to the evidence we have received from lenders, if you have any questions regarding this.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">passive income application is amazing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> for two reasons. First, it keeps you from being on a waiting list. It also gives you a chance to use the direct deposit program to apply for most if not all of the state benefits you could qualify for through multiple state income streams. You may be able to qualify for the maximum benefits with only the state income stream available to you through SNAP. But if you have five different income streams to choose from, you're probably not going to qualify. The direct deposit application is designed to streamline your existing payment into a single payment in which all of the income is deducted.</t>
-    </r>
+    <t xml:space="preserve">passive income application is the best application to be made on the basis of the Census Long Form – Explanatory Guide. The difference is that it is flexible. You can choose to have a LFA for your home, or for the rest of your life. Your home could also be a part of a mixed ownership. If you don't have a LFA or if you are renting, we may not be able to help with your mortgage interest, and so we will not be able to provide any mortgage insurance cover. Please refer to the evidence we have received from lenders, if you have any questions regarding this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passive income application is amazing for two reasons. First, it keeps you from being on a waiting list. It also gives you a chance to use the direct deposit program to apply for most if not all of the state benefits you could qualify for through multiple state income streams. You may be able to qualify for the maximum benefits with only the state income stream available to you through SNAP. But if you have five different income streams to choose from, you're probably not going to qualify. The direct deposit application is designed to streamline your existing payment into a single payment in which all of the income is deducted.</t>
   </si>
   <si>
     <t xml:space="preserve">blockhain guide to our newly open-sourced digester idea. Since coming to the Houston ICS CNC, it has become obvious that parts of our idea have proven to be quite feasible. This blog post will be an introduction to a few more things we can improve on and hopefully encourage some people to start working on (a really important part of our project is participation by interested people).</t>
@@ -1980,7 +1885,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2004,70 +1909,22 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF3C4043"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2082,36 +1939,8 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2135,46 +1964,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2182,180 +1978,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="27" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Hyperlink 2" xfId="21"/>
-    <cellStyle name="Hyperlink 3" xfId="22"/>
-    <cellStyle name="Normal 2" xfId="23"/>
-    <cellStyle name="Normal 3" xfId="24"/>
-    <cellStyle name="Normal 4" xfId="25"/>
-    <cellStyle name="Normal 5" xfId="26"/>
-    <cellStyle name="Normal 7" xfId="27"/>
-    <cellStyle name="Normal 8" xfId="28"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF3C4043"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2366,18 +2001,13 @@
   </sheetPr>
   <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C405" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F407" activeCellId="0" sqref="F407"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A406" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G407" activeCellId="1" sqref="H452 G407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="67"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6463,10 +6093,10 @@
       <c r="B158" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E158" s="2" t="n">
@@ -6489,10 +6119,10 @@
       <c r="B159" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="0" t="s">
         <v>257</v>
       </c>
       <c r="E159" s="2" t="n">
@@ -6515,10 +6145,10 @@
       <c r="B160" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E160" s="2" t="n">
@@ -6541,10 +6171,10 @@
       <c r="B161" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="0" t="s">
         <v>105</v>
       </c>
       <c r="E161" s="2" t="n">
@@ -8604,7 +8234,7 @@
       <c r="E240" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F240" s="0" t="s">
         <v>350</v>
       </c>
       <c r="G240" s="0" t="s">
@@ -8630,7 +8260,7 @@
       <c r="E241" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F241" s="0" t="s">
         <v>351</v>
       </c>
       <c r="G241" s="0" t="s">
@@ -8656,7 +8286,7 @@
       <c r="E242" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F242" s="0" t="s">
         <v>352</v>
       </c>
       <c r="G242" s="0" t="s">
@@ -8682,7 +8312,7 @@
       <c r="E243" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F243" s="0" t="s">
         <v>353</v>
       </c>
       <c r="G243" s="0" t="s">
@@ -8708,7 +8338,7 @@
       <c r="E244" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F244" s="0" t="s">
         <v>354</v>
       </c>
       <c r="G244" s="0" t="s">
@@ -8734,7 +8364,7 @@
       <c r="E245" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F245" s="0" t="s">
         <v>355</v>
       </c>
       <c r="G245" s="0" t="s">
@@ -8760,7 +8390,7 @@
       <c r="E246" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F246" s="0" t="s">
         <v>356</v>
       </c>
       <c r="G246" s="0" t="s">
@@ -8786,7 +8416,7 @@
       <c r="E247" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F247" s="0" t="s">
         <v>357</v>
       </c>
       <c r="G247" s="0" t="s">
@@ -8812,7 +8442,7 @@
       <c r="E248" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F248" s="3" t="s">
+      <c r="F248" s="0" t="s">
         <v>358</v>
       </c>
       <c r="G248" s="0" t="s">
@@ -8838,7 +8468,7 @@
       <c r="E249" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="F249" s="0" t="s">
         <v>359</v>
       </c>
       <c r="G249" s="0" t="s">
@@ -8864,7 +8494,7 @@
       <c r="E250" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F250" s="0" t="s">
         <v>361</v>
       </c>
       <c r="G250" s="0" t="s">
@@ -8887,7 +8517,7 @@
       <c r="E251" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F251" s="3" t="s">
+      <c r="F251" s="0" t="s">
         <v>363</v>
       </c>
       <c r="G251" s="0" t="s">
@@ -8965,7 +8595,7 @@
       <c r="E254" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F254" s="4" t="s">
+      <c r="F254" s="3" t="s">
         <v>366</v>
       </c>
       <c r="G254" s="0" t="s">
@@ -8991,7 +8621,7 @@
       <c r="E255" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F255" s="0" t="s">
         <v>368</v>
       </c>
       <c r="G255" s="0" t="s">
@@ -9017,7 +8647,7 @@
       <c r="E256" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F256" s="0" t="s">
         <v>370</v>
       </c>
       <c r="G256" s="0" t="s">
@@ -9043,7 +8673,7 @@
       <c r="E257" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F257" s="4" t="s">
+      <c r="F257" s="3" t="s">
         <v>372</v>
       </c>
       <c r="G257" s="0" t="s">
@@ -9069,7 +8699,7 @@
       <c r="E258" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F258" s="0" t="s">
         <v>373</v>
       </c>
       <c r="G258" s="0" t="s">
@@ -9095,7 +8725,7 @@
       <c r="E259" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F259" s="0" t="s">
         <v>375</v>
       </c>
       <c r="G259" s="0" t="s">
@@ -9121,7 +8751,7 @@
       <c r="E260" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F260" s="0" t="s">
         <v>377</v>
       </c>
       <c r="G260" s="0" t="s">
@@ -9147,7 +8777,7 @@
       <c r="E261" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F261" s="0" t="s">
         <v>378</v>
       </c>
       <c r="G261" s="0" t="s">
@@ -9173,7 +8803,7 @@
       <c r="E262" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F262" s="0" t="s">
         <v>379</v>
       </c>
       <c r="G262" s="0" t="s">
@@ -9199,7 +8829,7 @@
       <c r="E263" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F263" s="3" t="s">
+      <c r="F263" s="0" t="s">
         <v>380</v>
       </c>
       <c r="G263" s="0" t="s">
@@ -9225,7 +8855,7 @@
       <c r="E264" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F264" s="0" t="s">
         <v>381</v>
       </c>
       <c r="G264" s="0" t="s">
@@ -9251,7 +8881,7 @@
       <c r="E265" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F265" s="0" t="s">
         <v>382</v>
       </c>
       <c r="G265" s="0" t="s">
@@ -9277,7 +8907,7 @@
       <c r="E266" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F266" s="0" t="s">
         <v>383</v>
       </c>
       <c r="G266" s="0" t="s">
@@ -9303,7 +8933,7 @@
       <c r="E267" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F267" s="3" t="s">
+      <c r="F267" s="0" t="s">
         <v>384</v>
       </c>
       <c r="G267" s="0" t="s">
@@ -9866,10 +9496,10 @@
       <c r="B289" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E289" s="2" t="n">
@@ -9892,10 +9522,10 @@
       <c r="B290" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="0" t="s">
         <v>105</v>
       </c>
       <c r="E290" s="2" t="n">
@@ -9918,10 +9548,10 @@
       <c r="B291" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E291" s="2" t="n">
@@ -9944,10 +9574,10 @@
       <c r="B292" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="0" t="s">
         <v>288</v>
       </c>
       <c r="E292" s="2" t="n">
@@ -9970,10 +9600,10 @@
       <c r="B293" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E293" s="2" t="n">
@@ -9996,10 +9626,10 @@
       <c r="B294" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E294" s="2" t="n">
@@ -10022,10 +9652,10 @@
       <c r="B295" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E295" s="2" t="n">
@@ -10048,10 +9678,10 @@
       <c r="B296" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E296" s="2" t="n">
@@ -10074,10 +9704,10 @@
       <c r="B297" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="0" t="s">
         <v>416</v>
       </c>
       <c r="E297" s="2" t="n">
@@ -10100,7 +9730,7 @@
       <c r="B298" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="0" t="s">
         <v>115</v>
       </c>
       <c r="D298" s="0" t="s">
@@ -10109,7 +9739,7 @@
       <c r="E298" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F298" s="0" t="s">
         <v>418</v>
       </c>
       <c r="G298" s="0" t="s">
@@ -10120,1316 +9750,1316 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="0" t="s">
         <v>149</v>
       </c>
       <c r="E299" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F299" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="G299" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H299" s="3" t="s">
+      <c r="G299" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="0" t="s">
         <v>148</v>
       </c>
       <c r="E300" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F300" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="G300" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H300" s="3" t="s">
+      <c r="G300" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D301" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E301" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F301" s="4" t="s">
+      <c r="F301" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G301" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H301" s="3" t="s">
+      <c r="G301" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E302" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F302" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="G302" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H302" s="3" t="s">
+      <c r="G302" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E303" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F303" s="3" t="s">
+      <c r="F303" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="G303" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H303" s="3" t="s">
+      <c r="G303" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E304" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="F304" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="G304" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H304" s="3" t="s">
+      <c r="G304" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E305" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F305" s="3" t="s">
+      <c r="F305" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="G305" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" s="3" t="s">
+      <c r="G305" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D306" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E306" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F306" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="G306" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H306" s="3" t="s">
+      <c r="G306" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="0" t="s">
         <v>434</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D307" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E307" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F307" s="3" t="s">
+      <c r="F307" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="G307" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H307" s="3" t="s">
+      <c r="G307" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E308" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="F308" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="G308" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" s="3" t="s">
+      <c r="G308" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E309" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F309" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="G309" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H309" s="3" t="s">
+      <c r="G309" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E310" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F310" s="4" t="s">
+      <c r="F310" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G310" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H310" s="3" t="s">
+      <c r="G310" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E311" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F311" s="3" t="s">
+      <c r="F311" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="G311" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H311" s="3" t="s">
+      <c r="G311" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="0" t="s">
         <v>92</v>
       </c>
       <c r="E312" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F312" s="3" t="s">
+      <c r="F312" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="G312" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H312" s="3" t="s">
+      <c r="G312" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E313" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F313" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="G313" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H313" s="3" t="s">
+      <c r="G313" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F314" s="3" t="s">
+      <c r="F314" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="G314" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" s="3" t="s">
+      <c r="G314" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D315" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E315" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F315" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="G315" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H315" s="3" t="s">
+      <c r="G315" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F316" s="3" t="s">
+      <c r="F316" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="G316" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H316" s="3" t="s">
+      <c r="G316" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D317" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E317" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F317" s="3" t="s">
+      <c r="F317" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="G317" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" s="3" t="s">
+      <c r="G317" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F318" s="3" t="s">
+      <c r="F318" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="G318" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H318" s="3" t="s">
+      <c r="G318" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D319" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E319" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F319" s="3" t="s">
+      <c r="F319" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="G319" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H319" s="3" t="s">
+      <c r="G319" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E320" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F320" s="3" t="s">
+      <c r="F320" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="G320" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" s="3" t="s">
+      <c r="G320" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E321" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F321" s="3" t="s">
+      <c r="F321" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="G321" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="3" t="s">
+      <c r="G321" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="D322" s="5" t="s">
+      <c r="D322" s="0" t="s">
         <v>451</v>
       </c>
       <c r="E322" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F322" s="3" t="s">
+      <c r="F322" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="G322" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="3" t="s">
+      <c r="G322" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E323" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F323" s="3" t="s">
+      <c r="F323" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="G323" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H323" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="3" t="s">
+      <c r="G323" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E324" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F324" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="G324" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H324" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="3" t="s">
+      <c r="G324" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="0" t="s">
         <v>458</v>
       </c>
       <c r="E325" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F325" s="3" t="s">
+      <c r="F325" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="G325" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H325" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="3" t="s">
+      <c r="G325" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E326" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="F326" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="G326" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H326" s="3" t="s">
+      <c r="G326" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E327" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F327" s="3" t="s">
+      <c r="F327" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="G327" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H327" s="3" t="s">
+      <c r="G327" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E328" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F328" s="4" t="s">
+      <c r="F328" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G328" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H328" s="3" t="s">
+      <c r="G328" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E329" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="F329" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G329" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H329" s="3" t="s">
+      <c r="G329" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F330" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="G330" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H330" s="3" t="s">
+      <c r="G330" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E331" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F331" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="G331" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H331" s="3" t="s">
+      <c r="G331" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E332" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F332" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="G332" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H332" s="3" t="s">
+      <c r="G332" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D333" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E333" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F333" s="4" t="s">
+      <c r="F333" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G333" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H333" s="3" t="s">
+      <c r="G333" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="0" t="s">
         <v>92</v>
       </c>
       <c r="E334" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F334" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="G334" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H334" s="3" t="s">
+      <c r="G334" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E335" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F335" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="G335" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H335" s="3" t="s">
+      <c r="G335" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E336" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="F336" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="G336" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H336" s="3" t="s">
+      <c r="G336" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E337" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F337" s="3" t="s">
+      <c r="F337" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="G337" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H337" s="3" t="s">
+      <c r="G337" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E338" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="F338" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="G338" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H338" s="3" t="s">
+      <c r="G338" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E339" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F339" s="3" t="s">
+      <c r="F339" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="G339" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H339" s="3" t="s">
+      <c r="G339" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D340" s="0" t="s">
         <v>31</v>
       </c>
       <c r="E340" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="F340" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="G340" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H340" s="3" t="s">
+      <c r="G340" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E341" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F341" s="4" t="s">
+      <c r="F341" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G341" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" s="3" t="s">
+      <c r="G341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D342" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E342" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F342" s="3" t="s">
+      <c r="F342" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="G342" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H342" s="3" t="s">
+      <c r="G342" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="D343" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E343" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F343" s="4" t="s">
+      <c r="F343" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G343" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H343" s="3" t="s">
+      <c r="G343" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="0" t="s">
         <v>478</v>
       </c>
       <c r="E344" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F344" s="3" t="s">
+      <c r="F344" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="G344" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H344" s="3" t="s">
+      <c r="G344" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D345" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E345" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F345" s="3" t="s">
+      <c r="F345" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="G345" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H345" s="3" t="s">
+      <c r="G345" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E346" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F346" s="3" t="s">
+      <c r="F346" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="G346" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H346" s="3" t="s">
+      <c r="G346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="0" t="s">
         <v>458</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="F347" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="G347" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H347" s="3" t="s">
+      <c r="G347" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E348" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F348" s="3" t="s">
+      <c r="F348" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="G348" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H348" s="3" t="s">
+      <c r="G348" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C349" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="D349" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E349" s="2" t="n">
@@ -11438,24 +11068,24 @@
       <c r="F349" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="G349" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H349" s="3" t="s">
+      <c r="G349" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H349" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="D350" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E350" s="2" t="n">
@@ -11464,24 +11094,24 @@
       <c r="F350" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="G350" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H350" s="3" t="s">
+      <c r="G350" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="D351" s="8" t="s">
+      <c r="D351" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E351" s="2" t="n">
@@ -11490,24 +11120,24 @@
       <c r="F351" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G351" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H351" s="3" t="s">
+      <c r="G351" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H351" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D352" s="0" t="s">
         <v>430</v>
       </c>
       <c r="E352" s="2" t="n">
@@ -11516,24 +11146,24 @@
       <c r="F352" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="G352" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H352" s="3" t="s">
+      <c r="G352" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C353" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D353" s="0" t="s">
         <v>492</v>
       </c>
       <c r="E353" s="2" t="n">
@@ -11542,24 +11172,24 @@
       <c r="F353" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="G353" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H353" s="3" t="s">
+      <c r="G353" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C354" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D354" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E354" s="2" t="n">
@@ -11568,24 +11198,24 @@
       <c r="F354" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="G354" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H354" s="3" t="s">
+      <c r="G354" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H354" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C355" s="6" t="s">
+      <c r="C355" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D355" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E355" s="2" t="n">
@@ -11594,24 +11224,24 @@
       <c r="F355" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="G355" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="3" t="s">
+      <c r="G355" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="C356" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D356" s="10" t="s">
+      <c r="D356" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E356" s="2" t="n">
@@ -11620,24 +11250,24 @@
       <c r="F356" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="G356" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H356" s="3" t="s">
+      <c r="G356" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H356" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C357" s="11" t="s">
+      <c r="C357" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="D357" s="12" t="s">
+      <c r="D357" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E357" s="2" t="n">
@@ -11646,24 +11276,24 @@
       <c r="F357" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="G357" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H357" s="3" t="s">
+      <c r="G357" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C358" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="D358" s="14" t="s">
+      <c r="D358" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E358" s="2" t="n">
@@ -11672,24 +11302,24 @@
       <c r="F358" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="G358" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H358" s="3" t="s">
+      <c r="G358" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C359" s="12" t="s">
+      <c r="C359" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D359" s="14" t="s">
+      <c r="D359" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E359" s="2" t="n">
@@ -11698,24 +11328,24 @@
       <c r="F359" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="G359" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H359" s="3" t="s">
+      <c r="G359" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C360" s="15" t="s">
+      <c r="C360" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D360" s="14" t="s">
+      <c r="D360" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E360" s="2" t="n">
@@ -11724,24 +11354,24 @@
       <c r="F360" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H360" s="3" t="s">
+      <c r="G360" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C361" s="16" t="s">
+      <c r="C361" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D361" s="16" t="s">
+      <c r="D361" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E361" s="2" t="n">
@@ -11750,24 +11380,24 @@
       <c r="F361" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="G361" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H361" s="3" t="s">
+      <c r="G361" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H361" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C362" s="12" t="s">
+      <c r="C362" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="D362" s="14" t="s">
+      <c r="D362" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E362" s="2" t="n">
@@ -11776,24 +11406,24 @@
       <c r="F362" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="G362" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H362" s="3" t="s">
+      <c r="G362" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H362" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="C363" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D363" s="14" t="s">
+      <c r="D363" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E363" s="2" t="n">
@@ -11802,24 +11432,24 @@
       <c r="F363" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="G363" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H363" s="3" t="s">
+      <c r="G363" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C364" s="15" t="s">
+      <c r="C364" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D364" s="14" t="s">
+      <c r="D364" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E364" s="2" t="n">
@@ -11828,24 +11458,24 @@
       <c r="F364" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G364" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H364" s="3" t="s">
+      <c r="G364" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H364" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C365" s="16" t="s">
+      <c r="C365" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D365" s="16" t="s">
+      <c r="D365" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E365" s="2" t="n">
@@ -11854,10 +11484,10 @@
       <c r="F365" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="G365" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H365" s="3" t="s">
+      <c r="G365" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11865,13 +11495,13 @@
       <c r="A366" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B366" s="17" t="s">
+      <c r="B366" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C366" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="D366" s="7" t="s">
+      <c r="D366" s="0" t="s">
         <v>430</v>
       </c>
       <c r="E366" s="2" t="n">
@@ -11880,24 +11510,24 @@
       <c r="F366" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="G366" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H366" s="3" t="s">
+      <c r="G366" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H366" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B367" s="17" t="s">
+      <c r="B367" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C367" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D367" s="7" t="s">
+      <c r="D367" s="0" t="s">
         <v>492</v>
       </c>
       <c r="E367" s="2" t="n">
@@ -11906,24 +11536,24 @@
       <c r="F367" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="G367" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H367" s="3" t="s">
+      <c r="G367" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B368" s="17" t="s">
+      <c r="B368" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C368" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="D368" s="7" t="s">
+      <c r="D368" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E368" s="2" t="n">
@@ -11932,24 +11562,24 @@
       <c r="F368" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="G368" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H368" s="3" t="s">
+      <c r="G368" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H368" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="B369" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C369" s="6" t="s">
+      <c r="C369" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D369" s="7" t="s">
+      <c r="D369" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E369" s="2" t="n">
@@ -11958,24 +11588,24 @@
       <c r="F369" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="G369" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H369" s="3" t="s">
+      <c r="G369" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H369" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D370" s="18" t="s">
+      <c r="D370" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E370" s="2" t="n">
@@ -11984,24 +11614,24 @@
       <c r="F370" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="G370" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H370" s="3" t="s">
+      <c r="G370" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H370" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D371" s="18" t="s">
+      <c r="D371" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E371" s="2" t="n">
@@ -12010,24 +11640,24 @@
       <c r="F371" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="G371" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H371" s="3" t="s">
+      <c r="G371" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D372" s="0" t="s">
         <v>106</v>
       </c>
       <c r="E372" s="2" t="n">
@@ -12036,24 +11666,24 @@
       <c r="F372" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="G372" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H372" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="3" t="s">
+      <c r="G372" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H372" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B373" s="17" t="s">
+      <c r="B373" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C373" s="4" t="s">
+      <c r="C373" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="D373" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E373" s="2" t="n">
@@ -12070,16 +11700,16 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B374" s="17" t="s">
+      <c r="B374" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="D374" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E374" s="2" t="n">
@@ -12095,23 +11725,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="3" t="s">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B375" s="17" t="s">
+      <c r="B375" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C375" s="18" t="s">
+      <c r="C375" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D375" s="4" t="s">
+      <c r="D375" s="0" t="s">
         <v>106</v>
       </c>
       <c r="E375" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F375" s="3" t="s">
+      <c r="F375" s="0" t="s">
         <v>509</v>
       </c>
       <c r="G375" s="0" t="s">
@@ -12122,16 +11752,16 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B376" s="17" t="s">
+      <c r="B376" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C376" s="18" t="s">
+      <c r="C376" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D376" s="18" t="s">
+      <c r="D376" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E376" s="2" t="n">
@@ -12148,16 +11778,16 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B377" s="17" t="s">
+      <c r="B377" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D377" s="18" t="s">
+      <c r="D377" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E377" s="2" t="n">
@@ -12173,23 +11803,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="3" t="s">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B378" s="17" t="s">
+      <c r="B378" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C378" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D378" s="3" t="s">
+      <c r="D378" s="0" t="s">
         <v>106</v>
       </c>
       <c r="E378" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F378" s="4" t="s">
+      <c r="F378" s="3" t="s">
         <v>525</v>
       </c>
       <c r="G378" s="0" t="s">
@@ -12199,23 +11829,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="3" t="s">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B379" s="17" t="s">
+      <c r="B379" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C379" s="4" t="s">
+      <c r="C379" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D379" s="3" t="s">
+      <c r="D379" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E379" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F379" s="4" t="s">
+      <c r="F379" s="3" t="s">
         <v>526</v>
       </c>
       <c r="G379" s="0" t="s">
@@ -12225,23 +11855,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="3" t="s">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B380" s="17" t="s">
+      <c r="B380" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C380" s="4" t="s">
+      <c r="C380" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D380" s="0" t="s">
         <v>257</v>
       </c>
       <c r="E380" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F380" s="4" t="s">
+      <c r="F380" s="3" t="s">
         <v>527</v>
       </c>
       <c r="G380" s="0" t="s">
@@ -12251,387 +11881,387 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="3" t="s">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B381" s="17" t="s">
+      <c r="B381" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D381" s="3" t="s">
+      <c r="D381" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E381" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F381" s="4" t="s">
+      <c r="F381" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="G381" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H381" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="3" t="s">
+      <c r="G381" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H381" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B382" s="17" t="s">
+      <c r="B382" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C382" s="4" t="s">
+      <c r="C382" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D382" s="0" t="s">
         <v>105</v>
       </c>
       <c r="E382" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F382" s="4" t="s">
+      <c r="F382" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="G382" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H382" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="3" t="s">
+      <c r="G382" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B383" s="17" t="s">
+      <c r="B383" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C383" s="4" t="s">
+      <c r="C383" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D383" s="4" t="s">
+      <c r="D383" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E383" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F383" s="4" t="s">
+      <c r="F383" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="G383" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H383" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="3" t="s">
+      <c r="G383" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B384" s="17" t="s">
+      <c r="B384" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C384" s="4" t="s">
+      <c r="C384" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D384" s="4" t="s">
+      <c r="D384" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E384" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F384" s="4" t="s">
+      <c r="F384" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G384" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H384" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="3" t="s">
+      <c r="G384" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H384" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B385" s="17" t="s">
+      <c r="B385" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C385" s="4" t="s">
+      <c r="C385" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D385" s="4" t="s">
+      <c r="D385" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E385" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F385" s="4" t="s">
+      <c r="F385" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="G385" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H385" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="3" t="s">
+      <c r="G385" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B386" s="17" t="s">
+      <c r="B386" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C386" s="4" t="s">
+      <c r="C386" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D386" s="4" t="s">
+      <c r="D386" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E386" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F386" s="4" t="s">
+      <c r="F386" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="G386" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H386" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="3" t="s">
+      <c r="G386" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H386" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B387" s="17" t="s">
+      <c r="B387" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C387" s="4" t="s">
+      <c r="C387" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D387" s="4" t="s">
+      <c r="D387" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E387" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F387" s="4" t="s">
+      <c r="F387" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G387" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="388" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="3" t="s">
+      <c r="G387" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H387" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B388" s="17" t="s">
+      <c r="B388" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C388" s="4" t="s">
+      <c r="C388" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D388" s="4" t="s">
+      <c r="D388" s="0" t="s">
         <v>144</v>
       </c>
       <c r="E388" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F388" s="4" t="s">
+      <c r="F388" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="G388" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H388" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="3" t="s">
+      <c r="G388" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H388" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B389" s="17" t="s">
+      <c r="B389" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C389" s="4" t="s">
+      <c r="C389" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D389" s="4" t="s">
+      <c r="D389" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E389" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F389" s="4" t="s">
+      <c r="F389" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="G389" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H389" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="390" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="3" t="s">
+      <c r="G389" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B390" s="17" t="s">
+      <c r="B390" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C390" s="4" t="s">
+      <c r="C390" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D390" s="4" t="s">
+      <c r="D390" s="0" t="s">
         <v>61</v>
       </c>
       <c r="E390" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F390" s="4" t="s">
+      <c r="F390" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="G390" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H390" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="3" t="s">
+      <c r="G390" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H390" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B391" s="17" t="s">
+      <c r="B391" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C391" s="4" t="s">
+      <c r="C391" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="D391" s="4" t="s">
+      <c r="D391" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E391" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F391" s="4" t="s">
+      <c r="F391" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="G391" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="392" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="3" t="s">
+      <c r="G391" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B392" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C392" s="4" t="s">
+      <c r="C392" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D392" s="4" t="s">
+      <c r="D392" s="0" t="s">
         <v>66</v>
       </c>
       <c r="E392" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F392" s="4" t="s">
+      <c r="F392" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G392" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H392" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="3" t="s">
+      <c r="G392" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B393" s="17" t="s">
+      <c r="B393" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C393" s="4" t="s">
+      <c r="C393" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D393" s="4" t="s">
+      <c r="D393" s="0" t="s">
         <v>65</v>
       </c>
       <c r="E393" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F393" s="4" t="s">
+      <c r="F393" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="G393" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="394" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="3" t="s">
+      <c r="G393" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H393" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B394" s="17" t="s">
+      <c r="B394" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C394" s="4" t="s">
+      <c r="C394" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D394" s="4" t="s">
+      <c r="D394" s="0" t="s">
         <v>68</v>
       </c>
       <c r="E394" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F394" s="4" t="s">
+      <c r="F394" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="G394" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H394" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="3" t="s">
+      <c r="G394" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B395" s="17" t="s">
+      <c r="B395" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C395" s="4" t="s">
+      <c r="C395" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D395" s="4" t="s">
+      <c r="D395" s="0" t="s">
         <v>73</v>
       </c>
       <c r="E395" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F395" s="4" t="s">
+      <c r="F395" s="0" t="s">
         <v>542</v>
       </c>
       <c r="G395" s="0" t="s">
@@ -12641,1323 +12271,1323 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="3" t="s">
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B396" s="17" t="s">
+      <c r="B396" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C396" s="4" t="s">
+      <c r="C396" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D396" s="3" t="s">
+      <c r="D396" s="0" t="s">
         <v>49</v>
       </c>
       <c r="E396" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F396" s="4" t="s">
+      <c r="F396" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G396" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="397" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="3" t="s">
+      <c r="G396" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H396" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B397" s="17" t="s">
+      <c r="B397" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C397" s="4" t="s">
+      <c r="C397" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D397" s="4" t="s">
+      <c r="D397" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E397" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F397" s="4" t="s">
+      <c r="F397" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G397" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="398" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="3" t="s">
+      <c r="G397" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B398" s="17" t="s">
+      <c r="B398" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C398" s="4" t="s">
+      <c r="C398" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D398" s="4" t="s">
+      <c r="D398" s="0" t="s">
         <v>75</v>
       </c>
       <c r="E398" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F398" s="4" t="s">
+      <c r="F398" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="G398" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="399" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="3" t="s">
+      <c r="G398" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C399" s="4" t="s">
+      <c r="C399" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D399" s="4" t="s">
+      <c r="D399" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E399" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F399" s="4" t="s">
+      <c r="F399" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G399" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H399" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="400" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="3" t="s">
+      <c r="G399" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H399" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C400" s="4" t="s">
+      <c r="C400" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D400" s="4" t="s">
+      <c r="D400" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E400" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F400" s="4" t="s">
+      <c r="F400" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G400" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="3" t="s">
+      <c r="G400" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H400" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C401" s="4" t="s">
+      <c r="C401" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D401" s="4" t="s">
+      <c r="D401" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E401" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F401" s="4" t="s">
+      <c r="F401" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="G401" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="402" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="3" t="s">
+      <c r="G401" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H401" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C402" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D402" s="4" t="s">
+      <c r="D402" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E402" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F402" s="4" t="s">
+      <c r="F402" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="G402" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="3" t="s">
+      <c r="G402" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H402" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="B403" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C403" s="4" t="s">
+      <c r="C403" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D403" s="4" t="s">
+      <c r="D403" s="0" t="s">
         <v>144</v>
       </c>
       <c r="E403" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F403" s="4" t="s">
+      <c r="F403" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="G403" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H403" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="3" t="s">
+      <c r="G403" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H403" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C404" s="4" t="s">
+      <c r="C404" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D404" s="4" t="s">
+      <c r="D404" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E404" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F404" s="4" t="s">
+      <c r="F404" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="G404" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H404" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="3" t="s">
+      <c r="G404" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H404" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B405" s="17" t="s">
+      <c r="B405" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C405" s="4" t="s">
+      <c r="C405" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D405" s="4" t="s">
+      <c r="D405" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E405" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F405" s="4" t="s">
+      <c r="F405" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="G405" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H405" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="3" t="s">
+      <c r="G405" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H405" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B406" s="17" t="s">
+      <c r="B406" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C406" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D406" s="4" t="s">
+      <c r="D406" s="0" t="s">
         <v>75</v>
       </c>
       <c r="E406" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F406" s="4" t="s">
+      <c r="F406" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="G406" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H406" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="3" t="s">
+      <c r="G406" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H406" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B407" s="17" t="s">
+      <c r="B407" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C407" s="4" t="s">
+      <c r="C407" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D407" s="4" t="s">
+      <c r="D407" s="0" t="s">
         <v>81</v>
       </c>
       <c r="E407" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F407" s="19" t="s">
+      <c r="F407" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="G407" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H407" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="3" t="s">
+      <c r="G407" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H407" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B408" s="17" t="s">
+      <c r="B408" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C408" s="4" t="s">
+      <c r="C408" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D408" s="4" t="s">
+      <c r="D408" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E408" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F408" s="4" t="s">
+      <c r="F408" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="G408" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H408" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="409" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="3" t="s">
+      <c r="G408" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H408" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B409" s="17" t="s">
+      <c r="B409" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C409" s="4" t="s">
+      <c r="C409" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D409" s="4" t="s">
+      <c r="D409" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E409" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F409" s="4" t="s">
+      <c r="F409" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G409" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H409" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="3" t="s">
+      <c r="G409" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B410" s="17" t="s">
+      <c r="B410" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C410" s="4" t="s">
+      <c r="C410" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D410" s="4" t="s">
+      <c r="D410" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E410" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F410" s="4" t="s">
+      <c r="F410" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="G410" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H410" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="3" t="s">
+      <c r="G410" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H410" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B411" s="17" t="s">
+      <c r="B411" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C411" s="4" t="s">
+      <c r="C411" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D411" s="4" t="s">
+      <c r="D411" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E411" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F411" s="4" t="s">
+      <c r="F411" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="G411" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H411" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="3" t="s">
+      <c r="G411" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H411" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B412" s="17" t="s">
+      <c r="B412" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C412" s="4" t="s">
+      <c r="C412" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D412" s="4" t="s">
+      <c r="D412" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E412" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F412" s="4" t="s">
+      <c r="F412" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="G412" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H412" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="3" t="s">
+      <c r="G412" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H412" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B413" s="17" t="s">
+      <c r="B413" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C413" s="4" t="s">
+      <c r="C413" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D413" s="4" t="s">
+      <c r="D413" s="0" t="s">
         <v>92</v>
       </c>
       <c r="E413" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F413" s="4" t="s">
+      <c r="F413" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="G413" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H413" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="3" t="s">
+      <c r="G413" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H413" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B414" s="17" t="s">
+      <c r="B414" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C414" s="4" t="s">
+      <c r="C414" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D414" s="4" t="s">
+      <c r="D414" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E414" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F414" s="4" t="s">
+      <c r="F414" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="G414" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H414" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="3" t="s">
+      <c r="G414" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H414" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C415" s="4" t="s">
+      <c r="C415" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D415" s="4" t="s">
+      <c r="D415" s="0" t="s">
         <v>181</v>
       </c>
       <c r="E415" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F415" s="4" t="s">
+      <c r="F415" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="G415" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H415" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="3" t="s">
+      <c r="G415" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H415" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B416" s="3" t="s">
+      <c r="B416" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C416" s="4" t="s">
+      <c r="C416" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="D416" s="4" t="s">
+      <c r="D416" s="0" t="s">
         <v>367</v>
       </c>
       <c r="E416" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F416" s="4" t="s">
+      <c r="F416" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="G416" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H416" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="3" t="s">
+      <c r="G416" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H416" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C417" s="4" t="s">
+      <c r="C417" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D417" s="4" t="s">
+      <c r="D417" s="0" t="s">
         <v>369</v>
       </c>
       <c r="E417" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F417" s="4" t="s">
+      <c r="F417" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="G417" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H417" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="3" t="s">
+      <c r="G417" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H417" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C418" s="4" t="s">
+      <c r="C418" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="D418" s="3" t="s">
+      <c r="D418" s="0" t="s">
         <v>416</v>
       </c>
       <c r="E418" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F418" s="4" t="s">
+      <c r="F418" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="G418" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H418" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="3" t="s">
+      <c r="G418" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H418" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C419" s="4" t="s">
+      <c r="C419" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="D419" s="7" t="s">
+      <c r="D419" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E419" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F419" s="4" t="s">
+      <c r="F419" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="G419" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H419" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="420" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="3" t="s">
+      <c r="G419" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H419" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C420" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="D420" s="7" t="s">
+      <c r="D420" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E420" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F420" s="4" t="s">
+      <c r="F420" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="G420" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H420" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="3" t="s">
+      <c r="G420" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H420" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="C421" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D421" s="7" t="s">
+      <c r="D421" s="0" t="s">
         <v>458</v>
       </c>
       <c r="E421" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F421" s="4" t="s">
+      <c r="F421" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="G421" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H421" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="3" t="s">
+      <c r="G421" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H421" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B422" s="17" t="s">
+      <c r="B422" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="C422" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D422" s="10" t="s">
+      <c r="D422" s="0" t="s">
         <v>495</v>
       </c>
       <c r="E422" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F422" s="4" t="s">
+      <c r="F422" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="G422" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H422" s="3" t="s">
+      <c r="G422" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H422" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B423" s="17" t="s">
+      <c r="B423" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C423" s="11" t="s">
+      <c r="C423" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="D423" s="12" t="s">
+      <c r="D423" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E423" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F423" s="4" t="s">
+      <c r="F423" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="G423" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H423" s="3" t="s">
+      <c r="G423" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H423" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B424" s="17" t="s">
+      <c r="B424" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C424" s="12" t="s">
+      <c r="C424" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D424" s="14" t="s">
+      <c r="D424" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E424" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F424" s="4" t="s">
+      <c r="F424" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="G424" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H424" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="3" t="s">
+      <c r="G424" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H424" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B425" s="17" t="s">
+      <c r="B425" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C425" s="4" t="s">
+      <c r="C425" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D425" s="4" t="s">
+      <c r="D425" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E425" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F425" s="4" t="s">
+      <c r="F425" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="G425" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H425" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="3" t="s">
+      <c r="G425" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H425" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B426" s="17" t="s">
+      <c r="B426" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C426" s="4" t="s">
+      <c r="C426" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D426" s="4" t="s">
+      <c r="D426" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E426" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F426" s="4" t="s">
+      <c r="F426" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="G426" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H426" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="3" t="s">
+      <c r="G426" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H426" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B427" s="17" t="s">
+      <c r="B427" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C427" s="4" t="s">
+      <c r="C427" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D427" s="4" t="s">
+      <c r="D427" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E427" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F427" s="4" t="s">
+      <c r="F427" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="G427" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H427" s="3" t="s">
+      <c r="G427" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H427" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C428" s="6" t="s">
+      <c r="C428" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D428" s="7" t="s">
+      <c r="D428" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E428" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F428" s="4" t="s">
+      <c r="F428" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="G428" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H428" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="3" t="s">
+      <c r="G428" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H428" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="B429" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C429" s="6" t="s">
+      <c r="C429" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D429" s="7" t="s">
+      <c r="D429" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E429" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F429" s="4" t="s">
+      <c r="F429" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="G429" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H429" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="3" t="s">
+      <c r="G429" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H429" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C430" s="6" t="s">
+      <c r="C430" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="D430" s="7" t="s">
+      <c r="D430" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E430" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F430" s="4" t="s">
+      <c r="F430" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="G430" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H430" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="3" t="s">
+      <c r="G430" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H430" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B431" s="17" t="s">
+      <c r="B431" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C431" s="6" t="s">
+      <c r="C431" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D431" s="7" t="s">
+      <c r="D431" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E431" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F431" s="4" t="s">
+      <c r="F431" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="G431" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H431" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="3" t="s">
+      <c r="G431" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H431" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B432" s="17" t="s">
+      <c r="B432" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C432" s="6" t="s">
+      <c r="C432" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="D432" s="7" t="s">
+      <c r="D432" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E432" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F432" s="4" t="s">
+      <c r="F432" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="G432" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H432" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="3" t="s">
+      <c r="G432" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H432" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B433" s="17" t="s">
+      <c r="B433" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C433" s="6" t="s">
+      <c r="C433" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="D433" s="20" t="s">
+      <c r="D433" s="0" t="s">
         <v>451</v>
       </c>
       <c r="E433" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F433" s="4" t="s">
+      <c r="F433" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="G433" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H433" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="3" t="s">
+      <c r="G433" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H433" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="B434" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C434" s="21" t="s">
+      <c r="C434" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="D434" s="22" t="s">
+      <c r="D434" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E434" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F434" s="4" t="s">
+      <c r="F434" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="G434" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H434" s="3" t="s">
+      <c r="G434" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H434" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C435" s="23" t="s">
+      <c r="C435" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D435" s="24" t="s">
+      <c r="D435" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E435" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F435" s="4" t="s">
+      <c r="F435" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="G435" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H435" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="3" t="s">
+      <c r="G435" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H435" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="C436" s="23" t="s">
+      <c r="C436" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="D436" s="24" t="s">
+      <c r="D436" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E436" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F436" s="4" t="s">
+      <c r="F436" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="G436" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H436" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="3" t="s">
+      <c r="G436" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H436" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B437" s="17" t="s">
+      <c r="B437" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C437" s="21" t="s">
+      <c r="C437" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="D437" s="22" t="s">
+      <c r="D437" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E437" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F437" s="4" t="s">
+      <c r="F437" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="G437" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H437" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="438" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="3" t="s">
+      <c r="G437" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H437" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B438" s="17" t="s">
+      <c r="B438" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C438" s="23" t="s">
+      <c r="C438" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D438" s="24" t="s">
+      <c r="D438" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E438" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F438" s="4" t="s">
+      <c r="F438" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="G438" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H438" s="3" t="s">
+      <c r="G438" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H438" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="3" t="s">
+      <c r="A439" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B439" s="17" t="s">
+      <c r="B439" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C439" s="23" t="s">
+      <c r="C439" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="D439" s="24" t="s">
+      <c r="D439" s="0" t="s">
         <v>454</v>
       </c>
       <c r="E439" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F439" s="4" t="s">
+      <c r="F439" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="G439" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H439" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="440" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="3" t="s">
+      <c r="G439" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H439" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B440" s="17" t="s">
+      <c r="B440" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C440" s="4" t="s">
+      <c r="C440" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D440" s="4" t="s">
+      <c r="D440" s="0" t="s">
         <v>181</v>
       </c>
       <c r="E440" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F440" s="4" t="s">
+      <c r="F440" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="G440" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H440" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="441" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="3" t="s">
+      <c r="G440" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H440" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B441" s="17" t="s">
+      <c r="B441" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C441" s="4" t="s">
+      <c r="C441" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="D441" s="4" t="s">
+      <c r="D441" s="0" t="s">
         <v>367</v>
       </c>
       <c r="E441" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F441" s="4" t="s">
+      <c r="F441" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="G441" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H441" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="442" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="3" t="s">
+      <c r="G441" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H441" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B442" s="17" t="s">
+      <c r="B442" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C442" s="4" t="s">
+      <c r="C442" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D442" s="4" t="s">
+      <c r="D442" s="0" t="s">
         <v>369</v>
       </c>
       <c r="E442" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F442" s="4" t="s">
+      <c r="F442" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="G442" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H442" s="3" t="s">
+      <c r="G442" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H442" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B443" s="17" t="s">
+      <c r="B443" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C443" s="15" t="s">
+      <c r="C443" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="D443" s="14" t="s">
+      <c r="D443" s="0" t="s">
         <v>422</v>
       </c>
       <c r="E443" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F443" s="4" t="s">
+      <c r="F443" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="G443" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H443" s="3" t="s">
+      <c r="G443" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H443" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B444" s="17" t="s">
+      <c r="B444" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C444" s="16" t="s">
+      <c r="C444" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D444" s="16" t="s">
+      <c r="D444" s="0" t="s">
         <v>421</v>
       </c>
       <c r="E444" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F444" s="4" t="s">
+      <c r="F444" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="G444" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H444" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="3" t="s">
+      <c r="G444" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H444" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B445" s="17" t="s">
+      <c r="B445" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C445" s="25" t="s">
+      <c r="C445" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="D445" s="26" t="s">
+      <c r="D445" s="0" t="s">
         <v>596</v>
       </c>
       <c r="E445" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F445" s="4" t="s">
+      <c r="F445" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="G445" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H445" s="3" t="s">
+      <c r="G445" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H445" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C446" s="6" t="s">
+      <c r="C446" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="D446" s="20" t="s">
+      <c r="D446" s="0" t="s">
         <v>451</v>
       </c>
       <c r="E446" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F446" s="4" t="s">
+      <c r="F446" s="0" t="s">
         <v>599</v>
       </c>
       <c r="G446" s="0" t="s">
@@ -13968,22 +13598,22 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="C447" s="6" t="s">
+      <c r="C447" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="D447" s="7" t="s">
+      <c r="D447" s="0" t="s">
         <v>430</v>
       </c>
       <c r="E447" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F447" s="4" t="s">
+      <c r="F447" s="0" t="s">
         <v>600</v>
       </c>
       <c r="G447" s="0" t="s">
@@ -13993,255 +13623,137 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="3" t="s">
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B448" s="17" t="s">
+      <c r="B448" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C448" s="4" t="s">
+      <c r="C448" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D448" s="4" t="s">
+      <c r="D448" s="0" t="s">
         <v>41</v>
       </c>
       <c r="E448" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F448" s="4" t="s">
+      <c r="F448" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="G448" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H448" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="449" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="3" t="s">
+      <c r="G448" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H448" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B449" s="17" t="s">
+      <c r="B449" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C449" s="4" t="s">
+      <c r="C449" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D449" s="4" t="s">
+      <c r="D449" s="0" t="s">
         <v>314</v>
       </c>
       <c r="E449" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F449" s="4" t="s">
+      <c r="F449" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="G449" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H449" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="450" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="3" t="s">
+      <c r="G449" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H449" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B450" s="17" t="s">
+      <c r="B450" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C450" s="4" t="s">
+      <c r="C450" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D450" s="4" t="s">
+      <c r="D450" s="0" t="s">
         <v>316</v>
       </c>
       <c r="E450" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F450" s="4" t="s">
+      <c r="F450" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="G450" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H450" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="451" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="3" t="s">
+      <c r="G450" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H450" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B451" s="17" t="s">
+      <c r="B451" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C451" s="4" t="s">
+      <c r="C451" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="D451" s="4" t="s">
+      <c r="D451" s="0" t="s">
         <v>318</v>
       </c>
       <c r="E451" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F451" s="4" t="s">
+      <c r="F451" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="G451" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H451" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="452" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="3" t="s">
+      <c r="G451" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H451" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="B452" s="17" t="s">
+      <c r="B452" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C452" s="4" t="s">
+      <c r="C452" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D452" s="4" t="s">
+      <c r="D452" s="0" t="s">
         <v>288</v>
       </c>
       <c r="E452" s="2" t="n">
         <v>43887.5625</v>
       </c>
-      <c r="F452" s="4" t="s">
+      <c r="F452" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="G452" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H452" s="3" t="s">
+      <c r="G452" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H452" s="0" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C159" r:id="rId1" display="nachumshayil@gmail.com"/>
-    <hyperlink ref="D159" r:id="rId2" display="nachushay@gmail.com"/>
-    <hyperlink ref="C160" r:id="rId3" display="itaisenior@gmail.com"/>
-    <hyperlink ref="D160" r:id="rId4" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="D161" r:id="rId5" display="bittonnir12@gmail.com"/>
-    <hyperlink ref="D188" r:id="rId6" display="itaisenior@gmail.com"/>
-    <hyperlink ref="C191" r:id="rId7" display="leniyadoniv@gmail.com"/>
-    <hyperlink ref="C192" r:id="rId8" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="D193" r:id="rId9" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="D195" r:id="rId10" display="itaisenior@gmail.com"/>
-    <hyperlink ref="C198" r:id="rId11" display="leniyadoniv@gmail.com"/>
-    <hyperlink ref="C199" r:id="rId12" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="D200" r:id="rId13" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="C250" r:id="rId14" display="tzahiamit7@gmail.com"/>
-    <hyperlink ref="C251" r:id="rId15" display="cyghtinc@gmail.com"/>
-    <hyperlink ref="C254" r:id="rId16" display="omertamir609@gmail.com"/>
-    <hyperlink ref="D255" r:id="rId17" display="omertamir609@gmail.com"/>
-    <hyperlink ref="C257" r:id="rId18" display="shrnsagiv@gmail.com"/>
-    <hyperlink ref="C258" r:id="rId19" display="dony1098765432@gmail.com"/>
-    <hyperlink ref="D258" r:id="rId20" display="sixsevensix67676@gmail.com"/>
-    <hyperlink ref="C259" r:id="rId21" display="rontiddler560@gmail.com"/>
-    <hyperlink ref="D259" r:id="rId22" display="halachme@gmail.com"/>
-    <hyperlink ref="C260" r:id="rId23" display="gregneri12@gmail.com"/>
-    <hyperlink ref="D260" r:id="rId24" display="halachme@gmail.com"/>
-    <hyperlink ref="C261" r:id="rId25" display="sinuspai@gmail.com"/>
-    <hyperlink ref="C264" r:id="rId26" display="omertamir609@gmail.com"/>
-    <hyperlink ref="D265" r:id="rId27" display="omertamir609@gmail.com"/>
-    <hyperlink ref="C267" r:id="rId28" display="shrnsagiv@gmail.com"/>
-    <hyperlink ref="D268" r:id="rId29" display="itaisenior@gmail.com"/>
-    <hyperlink ref="C271" r:id="rId30" display="leniyadoniv@gmail.com"/>
-    <hyperlink ref="C272" r:id="rId31" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="C278" r:id="rId32" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="D278" r:id="rId33" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="D279" r:id="rId34" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="C280" r:id="rId35" display="nevilgreen12@gmail.com"/>
-    <hyperlink ref="D280" r:id="rId36" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="C281" r:id="rId37" display="stevewonder3001@gmail.com"/>
-    <hyperlink ref="D281" r:id="rId38" display="budoyoni@gmail.com"/>
-    <hyperlink ref="C282" r:id="rId39" display="sixsevensix67676@gmail.com"/>
-    <hyperlink ref="D282" r:id="rId40" display="stevewonder3001@gmail.com"/>
-    <hyperlink ref="C283" r:id="rId41" display="dony1098765432@gmail.com"/>
-    <hyperlink ref="D283" r:id="rId42" display="sixsevensix67676@gmail.com"/>
-    <hyperlink ref="C284" r:id="rId43" display="rontiddler560@gmail.com"/>
-    <hyperlink ref="D284" r:id="rId44" display="halachme@gmail.com"/>
-    <hyperlink ref="C285" r:id="rId45" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="D285" r:id="rId46" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="D286" r:id="rId47" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="C287" r:id="rId48" display="nevilgreen12@gmail.com"/>
-    <hyperlink ref="D287" r:id="rId49" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="C288" r:id="rId50" display="hermanliran@gmail.com"/>
-    <hyperlink ref="C289" r:id="rId51" display="itaisenior@gmail.com"/>
-    <hyperlink ref="D289" r:id="rId52" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="D290" r:id="rId53" display="bittonnir12@gmail.com"/>
-    <hyperlink ref="C293" r:id="rId54" display="freelancernachus@gmail.com"/>
-    <hyperlink ref="C294" r:id="rId55" display="sm6502345@gmail.com"/>
-    <hyperlink ref="D294" r:id="rId56" display="cybworking@gmail.com"/>
-    <hyperlink ref="C295" r:id="rId57" display="ronoren61@gmail.com"/>
-    <hyperlink ref="D295" r:id="rId58" display="nitanoren23@gmail.com"/>
-    <hyperlink ref="C296" r:id="rId59" display="nitanoren23@gmail.com"/>
-    <hyperlink ref="D296" r:id="rId60" display="ronoren61@gmail.com"/>
-    <hyperlink ref="C298" r:id="rId61" display="freelancernachus@gmail.com"/>
-    <hyperlink ref="C299" r:id="rId62" display="budoyoni@gmail.com"/>
-    <hyperlink ref="D299" r:id="rId63" display="sm6502345@gmail.com"/>
-    <hyperlink ref="C300" r:id="rId64" display="budoyoni2@gmail.com"/>
-    <hyperlink ref="D300" r:id="rId65" display="budoyoni@gmail.com"/>
-    <hyperlink ref="C301" r:id="rId66" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="C303" r:id="rId67" display="ruthrschmidt@gmail.com"/>
-    <hyperlink ref="D322" r:id="rId68" display="moshemask10@gmail.com"/>
-    <hyperlink ref="C324" r:id="rId69" display="arthurkbaker58@gmail.com"/>
-    <hyperlink ref="D326" r:id="rId70" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="C346" r:id="rId71" display="arthurkbaker58@gmail.com"/>
-    <hyperlink ref="D348" r:id="rId72" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D349" r:id="rId73" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D351" r:id="rId74" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="C357" r:id="rId75" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="C358" r:id="rId76" display="ruthrschmidt@gmail.com"/>
-    <hyperlink ref="C370" r:id="rId77" display="gazittalia1@gmail.com"/>
-    <hyperlink ref="D370" r:id="rId78" display="hermanliran@gmail.com"/>
-    <hyperlink ref="C371" r:id="rId79" display="leviadlevi22@gmail.com"/>
-    <hyperlink ref="D371" r:id="rId80" display="gazittalia1@gmail.com"/>
-    <hyperlink ref="C372" r:id="rId81" display="bittonnir12@gmail.com"/>
-    <hyperlink ref="D372" r:id="rId82" display="nevilgreen@gmail.com"/>
-    <hyperlink ref="D373" r:id="rId83" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="C374" r:id="rId84" display="nevilgreen12@gmail.com"/>
-    <hyperlink ref="D374" r:id="rId85" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="C375" r:id="rId86" display="hermanliran@gmail.com"/>
-    <hyperlink ref="C376" r:id="rId87" display="gazittalia1@gmail.com"/>
-    <hyperlink ref="D376" r:id="rId88" display="hermanliran@gmail.com"/>
-    <hyperlink ref="C377" r:id="rId89" display="leviadlevi22@gmail.com"/>
-    <hyperlink ref="D377" r:id="rId90" display="gazittalia1@gmail.com"/>
-    <hyperlink ref="C378" r:id="rId91" display="bittonnir12@gmail.com"/>
-    <hyperlink ref="D378" r:id="rId92" display="nevilgreen@gmail.com"/>
-    <hyperlink ref="D379" r:id="rId93" display="shmulmaor2@gmail.com"/>
-    <hyperlink ref="C380" r:id="rId94" display="nachumshayil@gmail.com"/>
-    <hyperlink ref="D380" r:id="rId95" display="nachushay@gmail.com"/>
-    <hyperlink ref="C381" r:id="rId96" display="itaisenior@gmail.com"/>
-    <hyperlink ref="D381" r:id="rId97" display="vikicrestina@gmail.com"/>
-    <hyperlink ref="D382" r:id="rId98" display="bittonnir12@gmail.com"/>
-    <hyperlink ref="D396" r:id="rId99" display="itaisenior@gmail.com"/>
-    <hyperlink ref="C405" r:id="rId100" display="leniyadoniv@gmail.com"/>
-    <hyperlink ref="C406" r:id="rId101" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="D407" r:id="rId102" display="rotemzinger3@gmail.com"/>
-    <hyperlink ref="D415" r:id="rId103" display="omertamir609@gmail.com"/>
-    <hyperlink ref="C417" r:id="rId104" display="shrnsagiv@gmail.com"/>
-    <hyperlink ref="C420" r:id="rId105" display="arthurkbaker58@gmail.com"/>
-    <hyperlink ref="C423" r:id="rId106" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D428" r:id="rId107" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D429" r:id="rId108" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D431" r:id="rId109" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D433" r:id="rId110" display="moshemask10@gmail.com"/>
-    <hyperlink ref="D435" r:id="rId111" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D438" r:id="rId112" display="dorothynhouck@gmail.com"/>
-    <hyperlink ref="D440" r:id="rId113" display="omertamir609@gmail.com"/>
-    <hyperlink ref="C442" r:id="rId114" display="shrnsagiv@gmail.com"/>
-    <hyperlink ref="D445" r:id="rId115" display="evenrotem@gmail.com"/>
-    <hyperlink ref="D446" r:id="rId116" display="moshemask10@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -16784,7 +16784,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -16900,7 +16900,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17060,7 +17060,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17300,7 +17300,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17305,7 +17305,7 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -2001,8 +2001,8 @@
   </sheetPr>
   <dimension ref="A1:H452"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H420" activeCellId="0" sqref="H420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A427" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H439" activeCellId="0" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12918,7 +12918,7 @@
         <v>14</v>
       </c>
       <c r="H420" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13412,7 +13412,7 @@
         <v>14</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18185,7 +18185,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18220,7 +18220,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18225,7 +18225,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18260,7 +18260,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18265,7 +18265,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18300,7 +18300,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18305,7 +18305,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18340,7 +18340,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18345,7 +18345,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18385,7 +18385,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18425,7 +18425,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18460,7 +18460,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18465,7 +18465,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18500,7 +18500,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18505,7 +18505,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18540,7 +18540,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18545,7 +18545,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18580,7 +18580,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18585,7 +18585,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1408A1C-521E-486A-80C6-958E2A5ABCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A2236-168E-4BEB-ACF5-79A9DEB62BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2469,7 +2469,7 @@
   <dimension ref="A1:H455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F456" sqref="F456"/>
+      <selection activeCell="E453" sqref="E453:E455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14240,6 +14240,9 @@
       <c r="D453" s="6" t="s">
         <v>453</v>
       </c>
+      <c r="E453" s="2">
+        <v>43887.5625</v>
+      </c>
       <c r="F453" s="19" t="s">
         <v>606</v>
       </c>
@@ -14263,6 +14266,9 @@
       <c r="D454" s="6" t="s">
         <v>455</v>
       </c>
+      <c r="E454" s="2">
+        <v>43887.5625</v>
+      </c>
       <c r="F454" s="19" t="s">
         <v>607</v>
       </c>
@@ -14285,6 +14291,9 @@
       </c>
       <c r="D455" s="6" t="s">
         <v>421</v>
+      </c>
+      <c r="E455" s="2">
+        <v>43887.5625</v>
       </c>
       <c r="F455" s="19" t="s">
         <v>608</v>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A2236-168E-4BEB-ACF5-79A9DEB62BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA82CE5-ED03-4893-974D-1E718E645D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E453" sqref="E453:E455"/>
+    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14227,17 +14227,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B453" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C453" s="5" t="s">
+      <c r="C453" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D453" s="6" t="s">
+      <c r="D453" s="19" t="s">
         <v>453</v>
       </c>
       <c r="E453" s="2">
@@ -14253,17 +14253,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B454" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C454" s="5" t="s">
+      <c r="C454" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D454" s="6" t="s">
+      <c r="D454" s="19" t="s">
         <v>455</v>
       </c>
       <c r="E454" s="2">
@@ -14279,17 +14279,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B455" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C455" s="5" t="s">
+      <c r="C455" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D455" s="6" t="s">
+      <c r="D455" s="19" t="s">
         <v>421</v>
       </c>
       <c r="E455" s="2">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA82CE5-ED03-4893-974D-1E718E645D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB85FE7-9F3C-4D0D-A183-9F324D28EA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -16905,7 +16905,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17065,7 +17065,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17860,7 +17860,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17865,7 +17865,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17980,7 +17980,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -17985,7 +17985,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18065,7 +18065,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18100,7 +18100,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18105,7 +18105,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18625,7 +18625,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18660,7 +18660,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18665,7 +18665,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18705,7 +18705,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A2535-BCC8-4B41-8E30-90B44781CA3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047AA42B-31A3-43CD-9B30-47C4F1809F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="608">
   <si>
     <t>appid</t>
   </si>
@@ -1878,19 +1878,10 @@
     <t>helped me compare some perfumes and save duty free money. Where is the exchange? Haha</t>
   </si>
   <si>
-    <t>online comapring of duty free products and shops. Amazing duty free prices and comparison</t>
-  </si>
-  <si>
     <t>off topic- duty free- just love this amazing duty free app.</t>
   </si>
   <si>
     <t>fall in love in duty free and then this app of duty free… all I ever needed.</t>
-  </si>
-  <si>
-    <t>smack that duty free store and prices</t>
-  </si>
-  <si>
-    <t>I start to emerge in every duty free in this app.. Hahaha great duty free app</t>
   </si>
   <si>
     <t>erezbirenboim32@gmail.com</t>
@@ -2472,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H457"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F458" sqref="F458"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H453" sqref="H453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13843,18 +13834,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B438" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C438" s="23" t="s">
+      <c r="C438" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D438" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="D438" s="25" t="s">
-        <v>421</v>
       </c>
       <c r="E438" s="2">
         <v>43887.5625</v>
@@ -13876,11 +13867,11 @@
       <c r="B439" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C439" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D439" s="6" t="s">
-        <v>453</v>
+      <c r="C439" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E439" s="2">
         <v>43887.5625</v>
@@ -13892,27 +13883,27 @@
         <v>14</v>
       </c>
       <c r="H439" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B440" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C440" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="D440" s="4" t="s">
-        <v>415</v>
+        <v>16</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="E440" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F440" s="19" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="G440" s="4" t="s">
         <v>14</v>
@@ -13921,50 +13912,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B441" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C441" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D441" s="19" t="s">
-        <v>366</v>
+        <v>16</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C441" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D441" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="E441" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F441" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G441" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H441" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B442" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C442" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D442" s="19" t="s">
-        <v>367</v>
+      <c r="C442" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D442" s="27" t="s">
+        <v>591</v>
       </c>
       <c r="E442" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F442" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G442" s="4" t="s">
         <v>14</v>
@@ -13978,24 +13969,24 @@
         <v>16</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C443" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="D443" s="13" t="s">
-        <v>425</v>
+        <v>594</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D443" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="E443" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F443" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="G443" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H443" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G443" t="s">
+        <v>14</v>
+      </c>
+      <c r="H443" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14004,45 +13995,45 @@
         <v>16</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C444" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D444" s="14" t="s">
-        <v>421</v>
+        <v>594</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="E444" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F444" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="G444" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H444" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="G444" t="s">
+        <v>14</v>
+      </c>
+      <c r="H444" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B445" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C445" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="D445" s="27" t="s">
-        <v>594</v>
+      <c r="C445" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D445" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E445" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F445" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G445" s="4" t="s">
         <v>14</v>
@@ -14051,18 +14042,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D446" s="21" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="B446" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C446" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D446" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="E446" s="2">
         <v>43887.5625</v>
@@ -14070,25 +14061,25 @@
       <c r="F446" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="G446" t="s">
-        <v>14</v>
-      </c>
-      <c r="H446" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G446" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H446" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D447" s="6" t="s">
-        <v>424</v>
+        <v>511</v>
+      </c>
+      <c r="B447" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C447" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D447" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="E447" s="2">
         <v>43887.5625</v>
@@ -14096,14 +14087,14 @@
       <c r="F447" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="G447" t="s">
-        <v>14</v>
-      </c>
-      <c r="H447" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G447" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H447" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>511</v>
       </c>
@@ -14111,10 +14102,10 @@
         <v>516</v>
       </c>
       <c r="C448" s="19" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D448" s="19" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="E448" s="2">
         <v>43887.5625</v>
@@ -14129,7 +14120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>511</v>
       </c>
@@ -14137,10 +14128,10 @@
         <v>516</v>
       </c>
       <c r="C449" s="19" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D449" s="19" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="E449" s="2">
         <v>43887.5625</v>
@@ -14152,7 +14143,7 @@
         <v>14</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -14163,10 +14154,10 @@
         <v>516</v>
       </c>
       <c r="C450" s="19" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
       <c r="D450" s="19" t="s">
-        <v>316</v>
+        <v>453</v>
       </c>
       <c r="E450" s="2">
         <v>43887.5625</v>
@@ -14181,7 +14172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>511</v>
       </c>
@@ -14189,10 +14180,10 @@
         <v>516</v>
       </c>
       <c r="C451" s="19" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="D451" s="19" t="s">
-        <v>318</v>
+        <v>455</v>
       </c>
       <c r="E451" s="2">
         <v>43887.5625</v>
@@ -14204,7 +14195,7 @@
         <v>14</v>
       </c>
       <c r="H451" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -14215,10 +14206,10 @@
         <v>516</v>
       </c>
       <c r="C452" s="19" t="s">
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="D452" s="19" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
       <c r="E452" s="2">
         <v>43887.5625</v>
@@ -14233,7 +14224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>511</v>
       </c>
@@ -14241,25 +14232,25 @@
         <v>516</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D453" s="19" t="s">
-        <v>453</v>
+        <v>133</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E453" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F453" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G453" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H453" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>511</v>
       </c>
@@ -14267,99 +14258,21 @@
         <v>516</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="D454" s="19" t="s">
-        <v>455</v>
+        <v>136</v>
       </c>
       <c r="E454" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F454" s="19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G454" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H454" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A455" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B455" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C455" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D455" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="E455" s="2">
-        <v>43887.5625</v>
-      </c>
-      <c r="F455" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="G455" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H455" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B456" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C456" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D456" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E456" s="2">
-        <v>43887.5625</v>
-      </c>
-      <c r="F456" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="G456" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H456" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B457" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C457" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D457" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E457" s="2">
-        <v>43887.5625</v>
-      </c>
-      <c r="F457" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="G457" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H457" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14475,19 +14388,17 @@
     <hyperlink ref="D429" r:id="rId108" xr:uid="{A842DC62-DF15-4619-BE96-A0C3CFF2F2F0}"/>
     <hyperlink ref="D431" r:id="rId109" xr:uid="{E1E67D62-8B59-4D70-BA33-29CF69740C1C}"/>
     <hyperlink ref="D433" r:id="rId110" xr:uid="{3103D796-7522-4BCF-9534-CFD85E77DE21}"/>
-    <hyperlink ref="D438" r:id="rId111" xr:uid="{7B4D6C9C-1FA9-4135-BC06-BEB2826E796B}"/>
-    <hyperlink ref="D435" r:id="rId112" xr:uid="{08D7448A-AE59-4044-88A2-725014123D8E}"/>
-    <hyperlink ref="C442" r:id="rId113" xr:uid="{F5E8A04B-24B5-4914-92AA-2B36D773D918}"/>
-    <hyperlink ref="D445" r:id="rId114" xr:uid="{99E667CC-166B-457E-98E8-5FB3724A0E39}"/>
-    <hyperlink ref="D446" r:id="rId115" xr:uid="{92CF2EDF-CDFA-46F4-AE95-4817ACD1397E}"/>
-    <hyperlink ref="C453" r:id="rId116" xr:uid="{7C09B14B-DF57-4382-8378-4D264731477B}"/>
-    <hyperlink ref="D455" r:id="rId117" xr:uid="{3F9FCDC0-4D3C-45CA-847D-55AE431A674E}"/>
-    <hyperlink ref="C456" r:id="rId118" xr:uid="{6801568D-FB08-487A-8C45-08FA7A43D261}"/>
-    <hyperlink ref="C457" r:id="rId119" xr:uid="{3478229C-E6DC-4A8A-A6BB-A8C29BE53D5F}"/>
-    <hyperlink ref="D456" r:id="rId120" xr:uid="{AF0DCCC1-D319-4A58-AD63-C98277F9B20B}"/>
-    <hyperlink ref="D457" r:id="rId121" xr:uid="{AD1848AD-DB08-4F2A-AA0A-CB6A2E637561}"/>
+    <hyperlink ref="D435" r:id="rId111" xr:uid="{08D7448A-AE59-4044-88A2-725014123D8E}"/>
+    <hyperlink ref="D442" r:id="rId112" xr:uid="{99E667CC-166B-457E-98E8-5FB3724A0E39}"/>
+    <hyperlink ref="D443" r:id="rId113" xr:uid="{92CF2EDF-CDFA-46F4-AE95-4817ACD1397E}"/>
+    <hyperlink ref="C450" r:id="rId114" xr:uid="{7C09B14B-DF57-4382-8378-4D264731477B}"/>
+    <hyperlink ref="D452" r:id="rId115" xr:uid="{3F9FCDC0-4D3C-45CA-847D-55AE431A674E}"/>
+    <hyperlink ref="C453" r:id="rId116" xr:uid="{6801568D-FB08-487A-8C45-08FA7A43D261}"/>
+    <hyperlink ref="C454" r:id="rId117" xr:uid="{3478229C-E6DC-4A8A-A6BB-A8C29BE53D5F}"/>
+    <hyperlink ref="D453" r:id="rId118" xr:uid="{AF0DCCC1-D319-4A58-AD63-C98277F9B20B}"/>
+    <hyperlink ref="D454" r:id="rId119" xr:uid="{AD1848AD-DB08-4F2A-AA0A-CB6A2E637561}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId122"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId120"/>
 </worksheet>
 </file>
--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047AA42B-31A3-43CD-9B30-47C4F1809F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8373B-6877-4679-A5A0-B8747480B747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="607">
   <si>
     <t>appid</t>
   </si>
@@ -1867,9 +1867,6 @@
   </si>
   <si>
     <t>think about waking up every morning with the greatest energy - this app can do it for you</t>
-  </si>
-  <si>
-    <t>click and another click- get a quote instantly- love it- great quotes app</t>
   </si>
   <si>
     <t>somebody told me about this app but its simplicity rule it all. Quotes with a character</t>
@@ -2463,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H453" sqref="H453"/>
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:XFD435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13756,7 +13753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>16</v>
       </c>
@@ -13764,10 +13761,10 @@
         <v>569</v>
       </c>
       <c r="C435" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="D435" s="25" t="s">
         <v>453</v>
-      </c>
-      <c r="D435" s="25" t="s">
-        <v>421</v>
       </c>
       <c r="E435" s="2">
         <v>43887.5625</v>
@@ -13782,17 +13779,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C436" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="D436" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="B436" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C436" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D436" s="24" t="s">
         <v>453</v>
       </c>
       <c r="E436" s="2">
@@ -13808,17 +13805,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>511</v>
       </c>
       <c r="B437" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C437" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="D437" s="24" t="s">
+      <c r="C437" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D437" s="6" t="s">
         <v>453</v>
       </c>
       <c r="E437" s="2">
@@ -13841,11 +13838,11 @@
       <c r="B438" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>453</v>
+      <c r="C438" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D438" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="E438" s="2">
         <v>43887.5625</v>
@@ -13857,27 +13854,27 @@
         <v>14</v>
       </c>
       <c r="H438" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B439" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C439" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="D439" s="4" t="s">
-        <v>415</v>
+        <v>16</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="E439" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F439" s="19" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="G439" s="4" t="s">
         <v>14</v>
@@ -13891,19 +13888,19 @@
         <v>16</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C440" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="D440" s="13" t="s">
-        <v>425</v>
+        <v>593</v>
+      </c>
+      <c r="C440" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D440" s="14" t="s">
+        <v>421</v>
       </c>
       <c r="E440" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F440" s="19" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G440" s="4" t="s">
         <v>14</v>
@@ -13912,18 +13909,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C441" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D441" s="14" t="s">
-        <v>421</v>
+        <v>511</v>
+      </c>
+      <c r="B441" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C441" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D441" s="27" t="s">
+        <v>590</v>
       </c>
       <c r="E441" s="2">
         <v>43887.5625</v>
@@ -13935,33 +13932,33 @@
         <v>14</v>
       </c>
       <c r="H441" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B442" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C442" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="D442" s="27" t="s">
-        <v>591</v>
+        <v>16</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D442" s="21" t="s">
+        <v>510</v>
       </c>
       <c r="E442" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F442" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="G442" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H442" s="4" t="s">
-        <v>15</v>
+        <v>594</v>
+      </c>
+      <c r="G442" t="s">
+        <v>14</v>
+      </c>
+      <c r="H442" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -13969,13 +13966,13 @@
         <v>16</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D443" s="21" t="s">
-        <v>510</v>
+        <v>484</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="E443" s="2">
         <v>43887.5625</v>
@@ -13990,18 +13987,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C444" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>424</v>
+        <v>511</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C444" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D444" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E444" s="2">
         <v>43887.5625</v>
@@ -14009,11 +14006,11 @@
       <c r="F444" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="G444" t="s">
-        <v>14</v>
-      </c>
-      <c r="H444" t="s">
-        <v>14</v>
+      <c r="G444" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H444" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="445" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14024,10 +14021,10 @@
         <v>516</v>
       </c>
       <c r="C445" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D445" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="D445" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="E445" s="2">
         <v>43887.5625</v>
@@ -14042,7 +14039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>511</v>
       </c>
@@ -14050,10 +14047,10 @@
         <v>516</v>
       </c>
       <c r="C446" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D446" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="D446" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="E446" s="2">
         <v>43887.5625</v>
@@ -14076,10 +14073,10 @@
         <v>516</v>
       </c>
       <c r="C447" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D447" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="D447" s="19" t="s">
-        <v>316</v>
       </c>
       <c r="E447" s="2">
         <v>43887.5625</v>
@@ -14102,10 +14099,10 @@
         <v>516</v>
       </c>
       <c r="C448" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D448" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="D448" s="19" t="s">
-        <v>318</v>
       </c>
       <c r="E448" s="2">
         <v>43887.5625</v>
@@ -14117,7 +14114,7 @@
         <v>14</v>
       </c>
       <c r="H448" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -14128,10 +14125,10 @@
         <v>516</v>
       </c>
       <c r="C449" s="19" t="s">
-        <v>287</v>
+        <v>452</v>
       </c>
       <c r="D449" s="19" t="s">
-        <v>288</v>
+        <v>453</v>
       </c>
       <c r="E449" s="2">
         <v>43887.5625</v>
@@ -14143,10 +14140,10 @@
         <v>14</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>511</v>
       </c>
@@ -14154,10 +14151,10 @@
         <v>516</v>
       </c>
       <c r="C450" s="19" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="D450" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E450" s="2">
         <v>43887.5625</v>
@@ -14169,10 +14166,10 @@
         <v>14</v>
       </c>
       <c r="H450" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>511</v>
       </c>
@@ -14180,10 +14177,10 @@
         <v>516</v>
       </c>
       <c r="C451" s="19" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="D451" s="19" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E451" s="2">
         <v>43887.5625</v>
@@ -14198,7 +14195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>511</v>
       </c>
@@ -14206,16 +14203,16 @@
         <v>516</v>
       </c>
       <c r="C452" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="D452" s="19" t="s">
-        <v>421</v>
+        <v>133</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E452" s="2">
         <v>43887.5625</v>
       </c>
       <c r="F452" s="19" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G452" s="4" t="s">
         <v>14</v>
@@ -14224,7 +14221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>511</v>
       </c>
@@ -14232,10 +14229,10 @@
         <v>516</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D453" s="4" t="s">
-        <v>134</v>
+        <v>50</v>
+      </c>
+      <c r="D453" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E453" s="2">
         <v>43887.5625</v>
@@ -14247,32 +14244,6 @@
         <v>14</v>
       </c>
       <c r="H453" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A454" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B454" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C454" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D454" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E454" s="2">
-        <v>43887.5625</v>
-      </c>
-      <c r="F454" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="G454" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H454" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14388,17 +14359,16 @@
     <hyperlink ref="D429" r:id="rId108" xr:uid="{A842DC62-DF15-4619-BE96-A0C3CFF2F2F0}"/>
     <hyperlink ref="D431" r:id="rId109" xr:uid="{E1E67D62-8B59-4D70-BA33-29CF69740C1C}"/>
     <hyperlink ref="D433" r:id="rId110" xr:uid="{3103D796-7522-4BCF-9534-CFD85E77DE21}"/>
-    <hyperlink ref="D435" r:id="rId111" xr:uid="{08D7448A-AE59-4044-88A2-725014123D8E}"/>
-    <hyperlink ref="D442" r:id="rId112" xr:uid="{99E667CC-166B-457E-98E8-5FB3724A0E39}"/>
-    <hyperlink ref="D443" r:id="rId113" xr:uid="{92CF2EDF-CDFA-46F4-AE95-4817ACD1397E}"/>
-    <hyperlink ref="C450" r:id="rId114" xr:uid="{7C09B14B-DF57-4382-8378-4D264731477B}"/>
-    <hyperlink ref="D452" r:id="rId115" xr:uid="{3F9FCDC0-4D3C-45CA-847D-55AE431A674E}"/>
-    <hyperlink ref="C453" r:id="rId116" xr:uid="{6801568D-FB08-487A-8C45-08FA7A43D261}"/>
-    <hyperlink ref="C454" r:id="rId117" xr:uid="{3478229C-E6DC-4A8A-A6BB-A8C29BE53D5F}"/>
-    <hyperlink ref="D453" r:id="rId118" xr:uid="{AF0DCCC1-D319-4A58-AD63-C98277F9B20B}"/>
-    <hyperlink ref="D454" r:id="rId119" xr:uid="{AD1848AD-DB08-4F2A-AA0A-CB6A2E637561}"/>
+    <hyperlink ref="D441" r:id="rId111" xr:uid="{99E667CC-166B-457E-98E8-5FB3724A0E39}"/>
+    <hyperlink ref="D442" r:id="rId112" xr:uid="{92CF2EDF-CDFA-46F4-AE95-4817ACD1397E}"/>
+    <hyperlink ref="C449" r:id="rId113" xr:uid="{7C09B14B-DF57-4382-8378-4D264731477B}"/>
+    <hyperlink ref="D451" r:id="rId114" xr:uid="{3F9FCDC0-4D3C-45CA-847D-55AE431A674E}"/>
+    <hyperlink ref="C452" r:id="rId115" xr:uid="{6801568D-FB08-487A-8C45-08FA7A43D261}"/>
+    <hyperlink ref="C453" r:id="rId116" xr:uid="{3478229C-E6DC-4A8A-A6BB-A8C29BE53D5F}"/>
+    <hyperlink ref="D452" r:id="rId117" xr:uid="{AF0DCCC1-D319-4A58-AD63-C98277F9B20B}"/>
+    <hyperlink ref="D453" r:id="rId118" xr:uid="{AD1848AD-DB08-4F2A-AA0A-CB6A2E637561}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId120"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
 </worksheet>
 </file>
--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8373B-6877-4679-A5A0-B8747480B747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6B274-4374-4ADF-B8B0-B55FF6BFB3B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="608">
   <si>
     <t>appid</t>
   </si>
@@ -1933,6 +1933,9 @@
   </si>
   <si>
     <t xml:space="preserve">DON'T let beautiful duty free store mislead you and your money. Use this amazing app and save your money from cash hunters and monsters. Duty free comparing app and site is amazing. We are the power and we must use it. </t>
+  </si>
+  <si>
+    <t>when I was first know about this app, I couldn't buy anything without comapring first. This duty free price comaprison app is amazing. What a shopping experience. Now everyone can save a lot of money while they travel</t>
   </si>
 </sst>
 </file>
@@ -2460,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:XFD435"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14244,6 +14247,32 @@
         <v>14</v>
       </c>
       <c r="H453" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B454" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C454" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D454" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E454" s="2">
+        <v>43887.5625</v>
+      </c>
+      <c r="F454" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="G454" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H454" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14367,8 +14396,10 @@
     <hyperlink ref="C453" r:id="rId116" xr:uid="{3478229C-E6DC-4A8A-A6BB-A8C29BE53D5F}"/>
     <hyperlink ref="D452" r:id="rId117" xr:uid="{AF0DCCC1-D319-4A58-AD63-C98277F9B20B}"/>
     <hyperlink ref="D453" r:id="rId118" xr:uid="{AD1848AD-DB08-4F2A-AA0A-CB6A2E637561}"/>
+    <hyperlink ref="C454" r:id="rId119" xr:uid="{B610BC5C-A111-4036-B027-2E8DB2C7E37F}"/>
+    <hyperlink ref="D454" r:id="rId120" xr:uid="{0A0610EE-6A25-4249-BFBB-C67B2F983CA9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
 </worksheet>
 </file>
--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18020,7 +18020,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18025,7 +18025,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18420,7 +18420,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18620,7 +18620,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18700,7 +18700,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18740,7 +18740,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18745,7 +18745,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18780,7 +18780,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18785,7 +18785,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18820,7 +18820,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18825,7 +18825,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18860,7 +18860,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18865,7 +18865,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18900,7 +18900,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18905,7 +18905,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18940,7 +18940,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18945,7 +18945,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18981,7 +18981,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -18986,7 +18986,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19022,7 +19022,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19027,7 +19027,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19062,7 +19062,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19067,7 +19067,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19102,7 +19102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19107,7 +19107,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19142,7 +19142,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19147,7 +19147,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330F2AA-AB21-429C-A04C-D25460579FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A1A99-7916-41C4-BCDC-C9A71D60E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="630">
   <si>
     <t>appid</t>
   </si>
@@ -1992,6 +1992,18 @@
   </si>
   <si>
     <t>duty free awesome app and website with real time duty free stores and products in your hands - welcome to a new age.</t>
+  </si>
+  <si>
+    <t>passive.income.nadi.affiliatemarketingforpassiveincome</t>
+  </si>
+  <si>
+    <t>best affiliate marketing guide</t>
+  </si>
+  <si>
+    <t>best comparison app ever - thanks to the world</t>
+  </si>
+  <si>
+    <t>can it be better? Wow just an amazing duty free app</t>
   </si>
 </sst>
 </file>
@@ -2519,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F469" sqref="F469"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14616,7 +14628,7 @@
         <v>14</v>
       </c>
       <c r="H465" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14642,7 +14654,7 @@
         <v>14</v>
       </c>
       <c r="H466" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14658,6 +14670,9 @@
       <c r="D467" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="E467" s="2">
+        <v>43887.5625</v>
+      </c>
       <c r="F467" s="19" t="s">
         <v>624</v>
       </c>
@@ -14665,7 +14680,7 @@
         <v>14</v>
       </c>
       <c r="H467" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -14681,6 +14696,9 @@
       <c r="D468" s="19" t="s">
         <v>152</v>
       </c>
+      <c r="E468" s="2">
+        <v>43887.5625</v>
+      </c>
       <c r="F468" s="19" t="s">
         <v>625</v>
       </c>
@@ -14688,12 +14706,86 @@
         <v>14</v>
       </c>
       <c r="H468" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C469" s="19"/>
-      <c r="D469" s="19"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B469" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C469" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D469" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E469" s="2">
+        <v>43887.5625</v>
+      </c>
+      <c r="F469" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="G469" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H469" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A470" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B470" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C470" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D470" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E470" s="2">
+        <v>43887.5625</v>
+      </c>
+      <c r="F470" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="G470" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H470" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A471" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B471" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C471" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D471" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E471" s="2">
+        <v>43887.5625</v>
+      </c>
+      <c r="F471" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H471" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14844,8 +14936,10 @@
     <hyperlink ref="C468" r:id="rId145" xr:uid="{E8D27558-409A-4DA0-989C-8129397AEF8B}"/>
     <hyperlink ref="D467" r:id="rId146" xr:uid="{944466E9-95E3-4A9B-8FEA-A26C29D92097}"/>
     <hyperlink ref="D468" r:id="rId147" xr:uid="{6ADAB6E9-2CBB-4353-9215-80B235211E65}"/>
+    <hyperlink ref="C469" r:id="rId148" xr:uid="{C5B7E853-825D-4707-8FB7-EC23CCF4B890}"/>
+    <hyperlink ref="D469" r:id="rId149" xr:uid="{440BBC7F-B2A1-4B16-810F-E803DBB861C4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId148"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId150"/>
 </worksheet>
 </file>
--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19302,7 +19302,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19307,7 +19307,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19342,7 +19342,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">

--- a/reviewdb.xlsx
+++ b/reviewdb.xlsx
@@ -19347,7 +19347,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
